--- a/source/reference_documents/working_material/AVCDL mappings.xlsx
+++ b/source/reference_documents/working_material/AVCDL mappings.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles.wilson/Documents/projects/AVCDL/distribution/reference_documents/working_material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles.wilson/Documents/projects/AVCDL/source/reference_documents/working_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3549078-3195-C44B-B559-3F88748FC16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD79579-3CC8-484C-93D7-880C55B1F3ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="9160" windowWidth="32160" windowHeight="23180" activeTab="6" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
+    <workbookView xWindow="21820" yWindow="2160" windowWidth="32160" windowHeight="23180" activeTab="7" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO 21434 work products" sheetId="1" r:id="rId1"/>
     <sheet name="434-262 map" sheetId="4" r:id="rId2"/>
     <sheet name="434 req-WP.29 map" sheetId="11" r:id="rId3"/>
-    <sheet name="AVCDL req-'434 phase req map" sheetId="2" r:id="rId4"/>
-    <sheet name="AVCDL-'434 req product map" sheetId="5" r:id="rId5"/>
+    <sheet name="AVCDL req-434 phase req map" sheetId="2" r:id="rId4"/>
+    <sheet name="AVCDL-434 req product map" sheetId="5" r:id="rId5"/>
     <sheet name="434 req-AVCDL product map" sheetId="10" r:id="rId6"/>
     <sheet name="WP.29-AVCDL product map" sheetId="12" r:id="rId7"/>
+    <sheet name="262-AVCDL product map" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="663">
   <si>
     <t xml:space="preserve">Organization Culture </t>
   </si>
@@ -1947,6 +1948,87 @@
   </si>
   <si>
     <t>AVCDL product</t>
+  </si>
+  <si>
+    <t>no '262 product</t>
+  </si>
+  <si>
+    <t>262 product match</t>
+  </si>
+  <si>
+    <t>2-E.3.1 [a]</t>
+  </si>
+  <si>
+    <t>2-E.3.1 [b]</t>
+  </si>
+  <si>
+    <t>2-E.3.2 [a]</t>
+  </si>
+  <si>
+    <t>2-E.3.2 [b]</t>
+  </si>
+  <si>
+    <t>2-E.3.2 [c]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [a]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [b]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [c]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [d]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [e]</t>
+  </si>
+  <si>
+    <t>Part 2 Annex E</t>
+  </si>
+  <si>
+    <t>in primary document</t>
+  </si>
+  <si>
+    <t>project planning</t>
+  </si>
+  <si>
+    <t>coordinated OT</t>
+  </si>
+  <si>
+    <t>threat countermeasures</t>
+  </si>
+  <si>
+    <t>safety risking of threats</t>
+  </si>
+  <si>
+    <t>safety review of threats</t>
+  </si>
+  <si>
+    <t>hardware/software design considerations</t>
+  </si>
+  <si>
+    <t>cybersecurity strategies</t>
+  </si>
+  <si>
+    <t>safety  strategies</t>
+  </si>
+  <si>
+    <t>threat process harmonization</t>
+  </si>
+  <si>
+    <t>identified countermeasures</t>
+  </si>
+  <si>
+    <t>incident response</t>
+  </si>
+  <si>
+    <t>2-E.3.4 [a]</t>
+  </si>
+  <si>
+    <t>effective communication channels</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2371,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2739,6 +2821,64 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3039,6 +3179,15 @@
     <xf numFmtId="1" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3069,14 +3218,38 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3608,36 +3781,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="183" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="163"/>
+      <c r="D1" s="183"/>
       <c r="E1" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="163" t="s">
+      <c r="F1" s="183" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163" t="s">
+      <c r="G1" s="183"/>
+      <c r="H1" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="85"/>
@@ -3672,13 +3845,13 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="184" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="186" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="83"/>
@@ -3718,9 +3891,9 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="166"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="186"/>
       <c r="E4" s="83"/>
       <c r="F4" s="69" t="s">
         <v>3</v>
@@ -3737,9 +3910,9 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="166"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="186"/>
       <c r="E5" s="83"/>
       <c r="F5" s="69" t="s">
         <v>5</v>
@@ -3757,9 +3930,9 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="83"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="166"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="83"/>
       <c r="F6" s="69" t="s">
         <v>6</v>
@@ -3773,9 +3946,9 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="166"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="186"/>
       <c r="E7" s="83"/>
       <c r="F7" s="69" t="s">
         <v>7</v>
@@ -3789,11 +3962,11 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="162" t="s">
+      <c r="B8" s="184"/>
+      <c r="C8" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="185" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="83"/>
@@ -3866,9 +4039,9 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="165"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="185"/>
       <c r="E9" s="83"/>
       <c r="F9" s="69" t="s">
         <v>15</v>
@@ -3882,9 +4055,9 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="86"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="165"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="185"/>
       <c r="E10" s="87" t="s">
         <v>198</v>
       </c>
@@ -3921,9 +4094,9 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="165"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="185"/>
       <c r="E11" s="88" t="s">
         <v>344</v>
       </c>
@@ -3942,14 +4115,14 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="85"/>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="85"/>
@@ -3973,13 +4146,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="184" t="s">
         <v>606</v>
       </c>
-      <c r="C13" s="162" t="s">
+      <c r="C13" s="182" t="s">
         <v>537</v>
       </c>
-      <c r="D13" s="166" t="s">
+      <c r="D13" s="186" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="83"/>
@@ -3998,9 +4171,9 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="166"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="186"/>
       <c r="E14" s="83"/>
       <c r="F14" s="92" t="s">
         <v>262</v>
@@ -4014,9 +4187,9 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="166"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="186"/>
       <c r="E15" s="83"/>
       <c r="F15" s="69" t="s">
         <v>23</v>
@@ -4066,14 +4239,14 @@
       <c r="AA16" s="128"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="168"/>
-      <c r="B17" s="170" t="s">
+      <c r="A17" s="188"/>
+      <c r="B17" s="190" t="s">
         <v>613</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="166" t="s">
+      <c r="D17" s="186" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="80" t="s">
@@ -4090,10 +4263,10 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="168"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="166"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="186"/>
       <c r="E18" s="80" t="s">
         <v>244</v>
       </c>
@@ -4108,10 +4281,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="168"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="166"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="186"/>
       <c r="E19" s="80" t="s">
         <v>244</v>
       </c>
@@ -4126,8 +4299,8 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="168"/>
-      <c r="B20" s="170"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="190"/>
       <c r="C20" s="110" t="s">
         <v>32</v>
       </c>
@@ -4148,8 +4321,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="170"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="190"/>
       <c r="C21" s="110" t="s">
         <v>33</v>
       </c>
@@ -4173,12 +4346,12 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="168"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="162" t="s">
+      <c r="A22" s="188"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="186" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="88" t="s">
@@ -4195,10 +4368,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="168"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="166"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="186"/>
       <c r="E23" s="88" t="s">
         <v>198</v>
       </c>
@@ -4214,14 +4387,14 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="85"/>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
       <c r="H24" s="85"/>
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
@@ -4244,8 +4417,8 @@
       <c r="AA24" s="128"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="168"/>
-      <c r="B25" s="169" t="s">
+      <c r="A25" s="188"/>
+      <c r="B25" s="189" t="s">
         <v>604</v>
       </c>
       <c r="C25" s="110" t="s">
@@ -4271,12 +4444,12 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="168"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="162" t="s">
+      <c r="A26" s="188"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="166" t="s">
+      <c r="D26" s="186" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="80" t="s">
@@ -4296,10 +4469,10 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="168"/>
-      <c r="B27" s="169"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="166"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="186"/>
       <c r="E27" s="80" t="s">
         <v>198</v>
       </c>
@@ -4314,10 +4487,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="168"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="166"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="186"/>
       <c r="E28" s="80" t="s">
         <v>198</v>
       </c>
@@ -4332,10 +4505,10 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="168"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="166"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="186"/>
       <c r="E29" s="80" t="s">
         <v>198</v>
       </c>
@@ -4350,12 +4523,12 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="168"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="162" t="s">
+      <c r="A30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="186" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="80" t="s">
@@ -4378,10 +4551,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="168"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="166"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="186"/>
       <c r="E31" s="80" t="s">
         <v>198</v>
       </c>
@@ -4396,14 +4569,14 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="168"/>
-      <c r="B32" s="164" t="s">
+      <c r="A32" s="188"/>
+      <c r="B32" s="184" t="s">
         <v>622</v>
       </c>
-      <c r="C32" s="162" t="s">
+      <c r="C32" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="165" t="s">
+      <c r="D32" s="185" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="87" t="s">
@@ -4423,10 +4596,10 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="168"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="165"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="185"/>
       <c r="E33" s="88" t="s">
         <v>197</v>
       </c>
@@ -4441,10 +4614,10 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="168"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="165"/>
+      <c r="A34" s="188"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="185"/>
       <c r="E34" s="88" t="s">
         <v>244</v>
       </c>
@@ -4462,10 +4635,10 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="168"/>
-      <c r="B35" s="164"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="165"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="185"/>
       <c r="E35" s="88" t="s">
         <v>200</v>
       </c>
@@ -4480,12 +4653,12 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="168"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="162" t="s">
+      <c r="A36" s="188"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="166" t="s">
+      <c r="D36" s="186" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="88" t="s">
@@ -4508,10 +4681,10 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="168"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="166"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="186"/>
       <c r="E37" s="80" t="s">
         <v>199</v>
       </c>
@@ -4526,10 +4699,10 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="168"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="166"/>
+      <c r="A38" s="188"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="186"/>
       <c r="E38" s="80" t="s">
         <v>199</v>
       </c>
@@ -4553,8 +4726,8 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="168"/>
-      <c r="B39" s="164"/>
+      <c r="A39" s="188"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="110" t="s">
         <v>97</v>
       </c>
@@ -4579,14 +4752,14 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="85"/>
-      <c r="B40" s="161" t="s">
+      <c r="B40" s="181" t="s">
         <v>508</v>
       </c>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="181"/>
       <c r="H40" s="85"/>
       <c r="I40" s="85"/>
       <c r="J40" s="85"/>
@@ -4610,13 +4783,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="109"/>
-      <c r="B41" s="164" t="s">
+      <c r="B41" s="184" t="s">
         <v>620</v>
       </c>
-      <c r="C41" s="162" t="s">
+      <c r="C41" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="166" t="s">
+      <c r="D41" s="186" t="s">
         <v>112</v>
       </c>
       <c r="E41" s="88" t="s">
@@ -4636,10 +4809,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="168"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="166"/>
+      <c r="A42" s="188"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="186"/>
       <c r="E42" s="80" t="s">
         <v>247</v>
       </c>
@@ -4654,12 +4827,12 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="168"/>
-      <c r="B43" s="164"/>
-      <c r="C43" s="162" t="s">
+      <c r="A43" s="188"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="166" t="s">
+      <c r="D43" s="186" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="88" t="s">
@@ -4676,10 +4849,10 @@
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="168"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="166"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="184"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="186"/>
       <c r="E44" s="80" t="s">
         <v>247</v>
       </c>
@@ -4694,8 +4867,8 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="168"/>
-      <c r="B45" s="164"/>
+      <c r="A45" s="188"/>
+      <c r="B45" s="184"/>
       <c r="C45" s="110" t="s">
         <v>111</v>
       </c>
@@ -4716,8 +4889,8 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="168"/>
-      <c r="B46" s="164"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="184"/>
       <c r="C46" s="110" t="s">
         <v>566</v>
       </c>
@@ -4738,8 +4911,8 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="168"/>
-      <c r="B47" s="164"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="184"/>
       <c r="C47" s="110" t="s">
         <v>567</v>
       </c>
@@ -4761,14 +4934,14 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="85"/>
-      <c r="B48" s="161" t="s">
+      <c r="B48" s="181" t="s">
         <v>549</v>
       </c>
-      <c r="C48" s="161"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="181"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="181"/>
       <c r="H48" s="85"/>
       <c r="I48" s="85"/>
       <c r="J48" s="85"/>
@@ -4792,13 +4965,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="100"/>
-      <c r="B49" s="164" t="s">
+      <c r="B49" s="184" t="s">
         <v>605</v>
       </c>
-      <c r="C49" s="162" t="s">
+      <c r="C49" s="182" t="s">
         <v>530</v>
       </c>
-      <c r="D49" s="166" t="s">
+      <c r="D49" s="186" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="88" t="s">
@@ -4816,9 +4989,9 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="100"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="166"/>
+      <c r="B50" s="184"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="186"/>
       <c r="E50" s="88" t="s">
         <v>198</v>
       </c>
@@ -4834,7 +5007,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="100"/>
-      <c r="B51" s="164"/>
+      <c r="B51" s="184"/>
       <c r="C51" s="110" t="s">
         <v>531</v>
       </c>
@@ -4856,7 +5029,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="100"/>
-      <c r="B52" s="164"/>
+      <c r="B52" s="184"/>
       <c r="C52" s="110" t="s">
         <v>532</v>
       </c>
@@ -4884,7 +5057,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="100"/>
-      <c r="B53" s="164"/>
+      <c r="B53" s="184"/>
       <c r="C53" s="110" t="s">
         <v>533</v>
       </c>
@@ -4909,7 +5082,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="100"/>
-      <c r="B54" s="164"/>
+      <c r="B54" s="184"/>
       <c r="C54" s="110" t="s">
         <v>534</v>
       </c>
@@ -4931,7 +5104,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="100"/>
-      <c r="B55" s="164"/>
+      <c r="B55" s="184"/>
       <c r="C55" s="110" t="s">
         <v>535</v>
       </c>
@@ -4956,7 +5129,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="100"/>
-      <c r="B56" s="164"/>
+      <c r="B56" s="184"/>
       <c r="C56" s="110" t="s">
         <v>536</v>
       </c>
@@ -5068,38 +5241,38 @@
   <sheetData>
     <row r="1" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="195" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="177" t="s">
+      <c r="C1" s="196"/>
+      <c r="D1" s="197" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="174" t="s">
+      <c r="E1" s="198"/>
+      <c r="F1" s="194" t="s">
         <v>307</v>
       </c>
-      <c r="G1" s="174"/>
-      <c r="H1" s="172" t="s">
+      <c r="G1" s="194"/>
+      <c r="H1" s="192" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="173"/>
+      <c r="I1" s="193"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="184" t="s">
         <v>612</v>
       </c>
       <c r="B3" s="73" t="s">
@@ -5124,7 +5297,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="164"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="73" t="s">
         <v>276</v>
       </c>
@@ -5147,7 +5320,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="164"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="73" t="s">
         <v>278</v>
       </c>
@@ -5174,17 +5347,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="164"/>
-      <c r="B6" s="162" t="s">
+      <c r="A6" s="184"/>
+      <c r="B6" s="182" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="186" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="166" t="s">
+      <c r="E6" s="186" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="75" t="s">
@@ -5201,11 +5374,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="164"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
       <c r="F7" s="75" t="s">
         <v>328</v>
       </c>
@@ -5220,7 +5393,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="164"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="73" t="s">
         <v>267</v>
       </c>
@@ -5247,17 +5420,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="164"/>
-      <c r="B9" s="162" t="s">
+      <c r="A9" s="184"/>
+      <c r="B9" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="166" t="s">
+      <c r="C9" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="166" t="s">
+      <c r="E9" s="186" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="75" t="s">
@@ -5274,11 +5447,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="164"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
+      <c r="A10" s="184"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
       <c r="F10" s="75" t="s">
         <v>325</v>
       </c>
@@ -5293,17 +5466,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
-      <c r="B11" s="181" t="s">
+      <c r="A11" s="184"/>
+      <c r="B11" s="201" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="180" t="s">
+      <c r="C11" s="200" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="180" t="s">
+      <c r="E11" s="200" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="75" t="s">
@@ -5320,11 +5493,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="164"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
+      <c r="A12" s="184"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="200"/>
       <c r="F12" s="75" t="s">
         <v>374</v>
       </c>
@@ -5339,7 +5512,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="184" t="s">
         <v>611</v>
       </c>
       <c r="B13" s="73" t="s">
@@ -5368,7 +5541,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="164"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="73" t="s">
         <v>282</v>
       </c>
@@ -5395,7 +5568,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="164"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="73" t="s">
         <v>284</v>
       </c>
@@ -5422,7 +5595,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="164"/>
+      <c r="A16" s="184"/>
       <c r="B16" s="73" t="s">
         <v>286</v>
       </c>
@@ -5449,7 +5622,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="164"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="76" t="s">
         <v>288</v>
       </c>
@@ -5476,17 +5649,17 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="164"/>
-      <c r="B18" s="179" t="s">
+      <c r="A18" s="184"/>
+      <c r="B18" s="199" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="191" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="171" t="s">
+      <c r="E18" s="191" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
@@ -5503,11 +5676,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="164"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
       <c r="F19" s="75" t="s">
         <v>365</v>
       </c>
@@ -5522,11 +5695,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="164"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
+      <c r="A20" s="184"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
       <c r="F20" s="75" t="s">
         <v>367</v>
       </c>
@@ -5541,7 +5714,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="164"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="73" t="s">
         <v>292</v>
       </c>
@@ -5568,17 +5741,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="164"/>
-      <c r="B22" s="162" t="s">
+      <c r="A22" s="184"/>
+      <c r="B22" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="166" t="s">
+      <c r="C22" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="166" t="s">
+      <c r="E22" s="186" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="75" t="s">
@@ -5595,11 +5768,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="164"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
+      <c r="A23" s="184"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
       <c r="F23" s="75" t="s">
         <v>357</v>
       </c>
@@ -5614,7 +5787,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="164"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="73" t="s">
         <v>296</v>
       </c>
@@ -5641,20 +5814,20 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="161" t="s">
+      <c r="A25" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="184" t="s">
         <v>618</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -5683,17 +5856,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="164"/>
-      <c r="B27" s="162" t="s">
+      <c r="A27" s="184"/>
+      <c r="B27" s="182" t="s">
         <v>528</v>
       </c>
-      <c r="C27" s="166" t="s">
+      <c r="C27" s="186" t="s">
         <v>299</v>
       </c>
-      <c r="D27" s="182" t="s">
+      <c r="D27" s="202" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="166" t="s">
+      <c r="E27" s="186" t="s">
         <v>259</v>
       </c>
       <c r="F27" s="75" t="s">
@@ -5710,11 +5883,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="164"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="166"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="186"/>
       <c r="F28" s="75" t="s">
         <v>313</v>
       </c>
@@ -5729,17 +5902,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="164"/>
-      <c r="B29" s="162" t="s">
+      <c r="A29" s="184"/>
+      <c r="B29" s="182" t="s">
         <v>529</v>
       </c>
-      <c r="C29" s="166" t="s">
+      <c r="C29" s="186" t="s">
         <v>300</v>
       </c>
-      <c r="D29" s="166" t="s">
+      <c r="D29" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="166" t="s">
+      <c r="E29" s="186" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="75" t="s">
@@ -5756,11 +5929,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="164"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
+      <c r="A30" s="184"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
       <c r="F30" s="75" t="s">
         <v>311</v>
       </c>
@@ -5775,26 +5948,26 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="161" t="s">
+      <c r="A31" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="190" t="s">
         <v>613</v>
       </c>
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="166" t="s">
+      <c r="C32" s="186" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="72" t="s">
@@ -5805,9 +5978,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="170"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="166"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="72" t="s">
         <v>43</v>
       </c>
@@ -5816,9 +5989,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="170"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="166"/>
+      <c r="A34" s="190"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="186"/>
       <c r="D34" s="72" t="s">
         <v>44</v>
       </c>
@@ -5831,7 +6004,7 @@
       <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="170"/>
+      <c r="A35" s="190"/>
       <c r="B35" s="75" t="s">
         <v>32</v>
       </c>
@@ -5846,7 +6019,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="170"/>
+      <c r="A36" s="190"/>
       <c r="B36" s="75" t="s">
         <v>33</v>
       </c>
@@ -5861,11 +6034,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="170"/>
-      <c r="B37" s="162" t="s">
+      <c r="A37" s="190"/>
+      <c r="B37" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="166" t="s">
+      <c r="C37" s="186" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="107" t="s">
@@ -5876,9 +6049,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="170"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="166"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="186"/>
       <c r="D38" s="79" t="s">
         <v>538</v>
       </c>
@@ -5887,20 +6060,20 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="169" t="s">
+      <c r="A40" s="189" t="s">
         <v>604</v>
       </c>
       <c r="B40" s="75" t="s">
@@ -5917,11 +6090,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="169"/>
-      <c r="B41" s="162" t="s">
+      <c r="A41" s="189"/>
+      <c r="B41" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="166" t="s">
+      <c r="C41" s="186" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="72" t="s">
@@ -5932,9 +6105,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="169"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="166"/>
+      <c r="A42" s="189"/>
+      <c r="B42" s="182"/>
+      <c r="C42" s="186"/>
       <c r="D42" s="72" t="s">
         <v>57</v>
       </c>
@@ -5943,9 +6116,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="169"/>
-      <c r="B43" s="162"/>
-      <c r="C43" s="166"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="186"/>
       <c r="D43" s="72" t="s">
         <v>58</v>
       </c>
@@ -5954,9 +6127,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="169"/>
-      <c r="B44" s="162"/>
-      <c r="C44" s="166"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="186"/>
       <c r="D44" s="72" t="s">
         <v>59</v>
       </c>
@@ -5965,11 +6138,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="169"/>
-      <c r="B45" s="162" t="s">
+      <c r="A45" s="189"/>
+      <c r="B45" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="166" t="s">
+      <c r="C45" s="186" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="72" t="s">
@@ -5980,9 +6153,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="169"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="166"/>
+      <c r="A46" s="189"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="186"/>
       <c r="D46" s="72" t="s">
         <v>61</v>
       </c>
@@ -5991,13 +6164,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="164" t="s">
+      <c r="A47" s="184" t="s">
         <v>622</v>
       </c>
-      <c r="B47" s="162" t="s">
+      <c r="B47" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="166" t="s">
+      <c r="C47" s="186" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="72" t="s">
@@ -6008,9 +6181,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="164"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="166"/>
+      <c r="A48" s="184"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="186"/>
       <c r="D48" s="72" t="s">
         <v>76</v>
       </c>
@@ -6019,9 +6192,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="164"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="166"/>
+      <c r="A49" s="184"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="186"/>
       <c r="D49" s="72" t="s">
         <v>77</v>
       </c>
@@ -6034,9 +6207,9 @@
       <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="164"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="166"/>
+      <c r="A50" s="184"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="186"/>
       <c r="D50" s="72" t="s">
         <v>78</v>
       </c>
@@ -6045,11 +6218,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="164"/>
-      <c r="B51" s="162" t="s">
+      <c r="A51" s="184"/>
+      <c r="B51" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="166" t="s">
+      <c r="C51" s="186" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="72" t="s">
@@ -6060,9 +6233,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="164"/>
-      <c r="B52" s="162"/>
-      <c r="C52" s="166"/>
+      <c r="A52" s="184"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="186"/>
       <c r="D52" s="72" t="s">
         <v>80</v>
       </c>
@@ -6071,7 +6244,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="164"/>
+      <c r="A53" s="184"/>
       <c r="B53" s="110" t="s">
         <v>94</v>
       </c>
@@ -6086,7 +6259,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="164"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="73" t="s">
         <v>97</v>
       </c>
@@ -6101,26 +6274,26 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="161" t="s">
+      <c r="A55" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="161"/>
-      <c r="C55" s="161"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
+      <c r="E55" s="181"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="181"/>
+      <c r="I55" s="181"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="184" t="s">
         <v>619</v>
       </c>
-      <c r="B56" s="162" t="s">
+      <c r="B56" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="166" t="s">
+      <c r="C56" s="186" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -6131,9 +6304,9 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="164"/>
-      <c r="B57" s="162"/>
-      <c r="C57" s="166"/>
+      <c r="A57" s="184"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="186"/>
       <c r="D57" s="92" t="s">
         <v>560</v>
       </c>
@@ -6146,11 +6319,11 @@
       <c r="I57" s="107"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="164"/>
-      <c r="B58" s="162" t="s">
+      <c r="A58" s="184"/>
+      <c r="B58" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="166" t="s">
+      <c r="C58" s="186" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -6161,9 +6334,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="164"/>
-      <c r="B59" s="162"/>
-      <c r="C59" s="166"/>
+      <c r="A59" s="184"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="186"/>
       <c r="D59" s="92" t="s">
         <v>265</v>
       </c>
@@ -6176,7 +6349,7 @@
       <c r="I59" s="74"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="164"/>
+      <c r="A60" s="184"/>
       <c r="B60" s="73" t="s">
         <v>111</v>
       </c>
@@ -6191,7 +6364,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="164"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="110" t="s">
         <v>566</v>
       </c>
@@ -6210,7 +6383,7 @@
       <c r="I61" s="107"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="164"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="110" t="s">
         <v>567</v>
       </c>
@@ -6225,26 +6398,26 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="161" t="s">
+      <c r="A63" s="181" t="s">
         <v>549</v>
       </c>
-      <c r="B63" s="161"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="161"/>
-      <c r="G63" s="161"/>
-      <c r="H63" s="161"/>
-      <c r="I63" s="161"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="181"/>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="181"/>
+      <c r="I63" s="181"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="164" t="s">
+      <c r="A64" s="184" t="s">
         <v>605</v>
       </c>
-      <c r="B64" s="162" t="s">
+      <c r="B64" s="182" t="s">
         <v>530</v>
       </c>
-      <c r="C64" s="166" t="s">
+      <c r="C64" s="186" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="101" t="s">
@@ -6259,9 +6432,9 @@
       <c r="I64" s="101"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="164"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="166"/>
+      <c r="A65" s="184"/>
+      <c r="B65" s="182"/>
+      <c r="C65" s="186"/>
       <c r="D65" s="101" t="s">
         <v>539</v>
       </c>
@@ -6274,7 +6447,7 @@
       <c r="I65" s="101"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="164"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="102" t="s">
         <v>531</v>
       </c>
@@ -6293,7 +6466,7 @@
       <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="164"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="102" t="s">
         <v>532</v>
       </c>
@@ -6312,7 +6485,7 @@
       <c r="I67" s="101"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="164"/>
+      <c r="A68" s="184"/>
       <c r="B68" s="102" t="s">
         <v>533</v>
       </c>
@@ -6331,7 +6504,7 @@
       <c r="I68" s="101"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="164"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="102" t="s">
         <v>534</v>
       </c>
@@ -6350,7 +6523,7 @@
       <c r="I69" s="101"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="164"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="102" t="s">
         <v>535</v>
       </c>
@@ -6369,7 +6542,7 @@
       <c r="I70" s="101"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="164"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="102" t="s">
         <v>536</v>
       </c>
@@ -6500,22 +6673,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E1" s="199" t="s">
+      <c r="E1" s="219" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="55" x14ac:dyDescent="0.2">
@@ -6567,10 +6740,10 @@
       <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="203" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="222" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -6598,8 +6771,8 @@
       <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="184"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="223"/>
       <c r="C4" s="31" t="s">
         <v>155</v>
       </c>
@@ -6625,8 +6798,8 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
-      <c r="B5" s="203"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="223"/>
       <c r="C5" s="31" t="s">
         <v>156</v>
       </c>
@@ -6652,8 +6825,8 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
-      <c r="B6" s="203"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="223"/>
       <c r="C6" s="30" t="s">
         <v>157</v>
       </c>
@@ -6677,8 +6850,8 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="184"/>
-      <c r="B7" s="203"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="223"/>
       <c r="C7" s="30" t="s">
         <v>158</v>
       </c>
@@ -6702,8 +6875,8 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="184"/>
-      <c r="B8" s="203"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="223"/>
       <c r="C8" s="31" t="s">
         <v>159</v>
       </c>
@@ -6729,8 +6902,8 @@
       <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
-      <c r="B9" s="203"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="223"/>
       <c r="C9" s="31" t="s">
         <v>161</v>
       </c>
@@ -6756,8 +6929,8 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
-      <c r="B10" s="203"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="31" t="s">
         <v>162</v>
       </c>
@@ -6783,8 +6956,8 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="184"/>
-      <c r="B11" s="203"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="223"/>
       <c r="C11" s="30" t="s">
         <v>163</v>
       </c>
@@ -6808,8 +6981,8 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="184"/>
-      <c r="B12" s="189" t="s">
+      <c r="A12" s="204"/>
+      <c r="B12" s="209" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -6837,8 +7010,8 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
-      <c r="B13" s="190"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="31" t="s">
         <v>162</v>
       </c>
@@ -6864,8 +7037,8 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
-      <c r="B14" s="205" t="s">
+      <c r="A14" s="204"/>
+      <c r="B14" s="225" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -6893,8 +7066,8 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="184"/>
-      <c r="B15" s="205"/>
+      <c r="A15" s="204"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="22" t="s">
         <v>160</v>
       </c>
@@ -6918,7 +7091,7 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="184"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="124" t="s">
         <v>6</v>
       </c>
@@ -6945,7 +7118,7 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="185"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="22" t="s">
         <v>7</v>
       </c>
@@ -6972,10 +7145,10 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="203" t="s">
         <v>611</v>
       </c>
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="222" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -7001,8 +7174,8 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="184"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="204"/>
+      <c r="B19" s="223"/>
       <c r="C19" s="30" t="s">
         <v>167</v>
       </c>
@@ -7026,8 +7199,8 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="184"/>
-      <c r="B20" s="203"/>
+      <c r="A20" s="204"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="30" t="s">
         <v>168</v>
       </c>
@@ -7051,8 +7224,8 @@
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
-      <c r="B21" s="203"/>
+      <c r="A21" s="204"/>
+      <c r="B21" s="223"/>
       <c r="C21" s="30" t="s">
         <v>169</v>
       </c>
@@ -7076,8 +7249,8 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
-      <c r="B22" s="203"/>
+      <c r="A22" s="204"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="30" t="s">
         <v>170</v>
       </c>
@@ -7101,8 +7274,8 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="184"/>
-      <c r="B23" s="203"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="30" t="s">
         <v>171</v>
       </c>
@@ -7126,8 +7299,8 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="184"/>
-      <c r="B24" s="203"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="30" t="s">
         <v>172</v>
       </c>
@@ -7151,8 +7324,8 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
-      <c r="B25" s="203"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="31" t="s">
         <v>173</v>
       </c>
@@ -7178,8 +7351,8 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
-      <c r="B26" s="203"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="31" t="s">
         <v>174</v>
       </c>
@@ -7205,8 +7378,8 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="184"/>
-      <c r="B27" s="203"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="223"/>
       <c r="C27" s="30" t="s">
         <v>175</v>
       </c>
@@ -7230,8 +7403,8 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
-      <c r="B28" s="203"/>
+      <c r="A28" s="204"/>
+      <c r="B28" s="223"/>
       <c r="C28" s="30" t="s">
         <v>176</v>
       </c>
@@ -7255,8 +7428,8 @@
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
-      <c r="B29" s="203"/>
+      <c r="A29" s="204"/>
+      <c r="B29" s="223"/>
       <c r="C29" s="30" t="s">
         <v>177</v>
       </c>
@@ -7280,8 +7453,8 @@
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
-      <c r="B30" s="203"/>
+      <c r="A30" s="204"/>
+      <c r="B30" s="223"/>
       <c r="C30" s="30" t="s">
         <v>178</v>
       </c>
@@ -7305,8 +7478,8 @@
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="184"/>
-      <c r="B31" s="203"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="223"/>
       <c r="C31" s="30" t="s">
         <v>179</v>
       </c>
@@ -7330,8 +7503,8 @@
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="184"/>
-      <c r="B32" s="203"/>
+      <c r="A32" s="204"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="30" t="s">
         <v>180</v>
       </c>
@@ -7355,8 +7528,8 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
-      <c r="B33" s="203"/>
+      <c r="A33" s="204"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="30" t="s">
         <v>181</v>
       </c>
@@ -7380,8 +7553,8 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
-      <c r="B34" s="203"/>
+      <c r="A34" s="204"/>
+      <c r="B34" s="223"/>
       <c r="C34" s="30" t="s">
         <v>182</v>
       </c>
@@ -7405,8 +7578,8 @@
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="184"/>
-      <c r="B35" s="203"/>
+      <c r="A35" s="204"/>
+      <c r="B35" s="223"/>
       <c r="C35" s="30" t="s">
         <v>183</v>
       </c>
@@ -7430,8 +7603,8 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="184"/>
-      <c r="B36" s="203"/>
+      <c r="A36" s="204"/>
+      <c r="B36" s="223"/>
       <c r="C36" s="30" t="s">
         <v>184</v>
       </c>
@@ -7455,8 +7628,8 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
-      <c r="B37" s="206"/>
+      <c r="A37" s="204"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="30" t="s">
         <v>185</v>
       </c>
@@ -7480,7 +7653,7 @@
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="204"/>
       <c r="B38" s="22" t="s">
         <v>15</v>
       </c>
@@ -7507,8 +7680,8 @@
       <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="184"/>
-      <c r="B39" s="200" t="s">
+      <c r="A39" s="204"/>
+      <c r="B39" s="220" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="30" t="s">
@@ -7534,8 +7707,8 @@
       <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="184"/>
-      <c r="B40" s="207"/>
+      <c r="A40" s="204"/>
+      <c r="B40" s="227"/>
       <c r="C40" s="30" t="s">
         <v>188</v>
       </c>
@@ -7559,8 +7732,8 @@
       <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
-      <c r="B41" s="207"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="227"/>
       <c r="C41" s="30" t="s">
         <v>189</v>
       </c>
@@ -7584,8 +7757,8 @@
       <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
-      <c r="B42" s="207"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="227"/>
       <c r="C42" s="30" t="s">
         <v>190</v>
       </c>
@@ -7609,8 +7782,8 @@
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="184"/>
-      <c r="B43" s="207"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="30" t="s">
         <v>191</v>
       </c>
@@ -7634,8 +7807,8 @@
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="184"/>
-      <c r="B44" s="207"/>
+      <c r="A44" s="204"/>
+      <c r="B44" s="227"/>
       <c r="C44" s="30" t="s">
         <v>580</v>
       </c>
@@ -7659,8 +7832,8 @@
       <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
-      <c r="B45" s="207"/>
+      <c r="A45" s="204"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="30" t="s">
         <v>551</v>
       </c>
@@ -7684,8 +7857,8 @@
       <c r="S45" s="10"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
-      <c r="B46" s="201"/>
+      <c r="A46" s="204"/>
+      <c r="B46" s="221"/>
       <c r="C46" s="30" t="s">
         <v>552</v>
       </c>
@@ -7709,8 +7882,8 @@
       <c r="S46" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="184"/>
-      <c r="B47" s="200" t="s">
+      <c r="A47" s="204"/>
+      <c r="B47" s="220" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -7736,8 +7909,8 @@
       <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="185"/>
-      <c r="B48" s="201"/>
+      <c r="A48" s="205"/>
+      <c r="B48" s="221"/>
       <c r="C48" s="30" t="s">
         <v>554</v>
       </c>
@@ -7782,10 +7955,10 @@
       <c r="S49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="186" t="s">
+      <c r="A50" s="206" t="s">
         <v>618</v>
       </c>
-      <c r="B50" s="200" t="s">
+      <c r="B50" s="220" t="s">
         <v>261</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -7811,8 +7984,8 @@
       <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="187"/>
-      <c r="B51" s="201"/>
+      <c r="A51" s="207"/>
+      <c r="B51" s="221"/>
       <c r="C51" s="30" t="s">
         <v>126</v>
       </c>
@@ -7836,7 +8009,7 @@
       <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="187"/>
+      <c r="A52" s="207"/>
       <c r="B52" s="22" t="s">
         <v>262</v>
       </c>
@@ -7863,8 +8036,8 @@
       <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="187"/>
-      <c r="B53" s="202" t="s">
+      <c r="A53" s="207"/>
+      <c r="B53" s="222" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -7892,8 +8065,8 @@
       <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="187"/>
-      <c r="B54" s="203"/>
+      <c r="A54" s="207"/>
+      <c r="B54" s="223"/>
       <c r="C54" s="31" t="s">
         <v>250</v>
       </c>
@@ -7919,8 +8092,8 @@
       <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="188"/>
-      <c r="B55" s="203"/>
+      <c r="A55" s="208"/>
+      <c r="B55" s="223"/>
       <c r="C55" s="30" t="s">
         <v>251</v>
       </c>
@@ -7965,7 +8138,7 @@
       <c r="S56" s="10"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="186" t="s">
+      <c r="A57" s="206" t="s">
         <v>613</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -7996,7 +8169,7 @@
       <c r="S57" s="10"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="187"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="23" t="s">
         <v>43</v>
       </c>
@@ -8025,7 +8198,7 @@
       <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="187"/>
+      <c r="A59" s="207"/>
       <c r="B59" s="23" t="s">
         <v>44</v>
       </c>
@@ -8056,7 +8229,7 @@
       <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="187"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="23" t="s">
         <v>45</v>
       </c>
@@ -8085,8 +8258,8 @@
       <c r="S60" s="10"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="187"/>
-      <c r="B61" s="189" t="s">
+      <c r="A61" s="207"/>
+      <c r="B61" s="209" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="31" t="s">
@@ -8116,8 +8289,8 @@
       <c r="S61" s="10"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="187"/>
-      <c r="B62" s="190"/>
+      <c r="A62" s="207"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="31" t="s">
         <v>140</v>
       </c>
@@ -8145,7 +8318,7 @@
       <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="187"/>
+      <c r="A63" s="207"/>
       <c r="B63" s="23" t="s">
         <v>47</v>
       </c>
@@ -8174,7 +8347,7 @@
       <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="188"/>
+      <c r="A64" s="208"/>
       <c r="B64" s="22" t="s">
         <v>538</v>
       </c>
@@ -8222,10 +8395,10 @@
       <c r="S65" s="10"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="186" t="s">
+      <c r="A66" s="206" t="s">
         <v>604</v>
       </c>
-      <c r="B66" s="194" t="s">
+      <c r="B66" s="214" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="30" t="s">
@@ -8251,8 +8424,8 @@
       <c r="S66" s="10"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="187"/>
-      <c r="B67" s="194"/>
+      <c r="A67" s="207"/>
+      <c r="B67" s="214"/>
       <c r="C67" s="30" t="s">
         <v>255</v>
       </c>
@@ -8276,8 +8449,8 @@
       <c r="S67" s="10"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="187"/>
-      <c r="B68" s="200" t="s">
+      <c r="A68" s="207"/>
+      <c r="B68" s="220" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="30" t="s">
@@ -8303,8 +8476,8 @@
       <c r="S68" s="10"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="187"/>
-      <c r="B69" s="201"/>
+      <c r="A69" s="207"/>
+      <c r="B69" s="221"/>
       <c r="C69" s="30" t="s">
         <v>117</v>
       </c>
@@ -8328,7 +8501,7 @@
       <c r="S69" s="10"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="187"/>
+      <c r="A70" s="207"/>
       <c r="B70" s="23" t="s">
         <v>57</v>
       </c>
@@ -8357,7 +8530,7 @@
       <c r="S70" s="10"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="187"/>
+      <c r="A71" s="207"/>
       <c r="B71" s="23" t="s">
         <v>58</v>
       </c>
@@ -8386,7 +8559,7 @@
       <c r="S71" s="10"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="187"/>
+      <c r="A72" s="207"/>
       <c r="B72" s="23" t="s">
         <v>59</v>
       </c>
@@ -8415,8 +8588,8 @@
       <c r="S72" s="10"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="187"/>
-      <c r="B73" s="191" t="s">
+      <c r="A73" s="207"/>
+      <c r="B73" s="211" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="31" t="s">
@@ -8444,8 +8617,8 @@
       <c r="S73" s="10"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="187"/>
-      <c r="B74" s="192"/>
+      <c r="A74" s="207"/>
+      <c r="B74" s="212"/>
       <c r="C74" s="30" t="s">
         <v>122</v>
       </c>
@@ -8469,8 +8642,8 @@
       <c r="S74" s="10"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="187"/>
-      <c r="B75" s="193"/>
+      <c r="A75" s="207"/>
+      <c r="B75" s="213"/>
       <c r="C75" s="30" t="s">
         <v>123</v>
       </c>
@@ -8494,7 +8667,7 @@
       <c r="S75" s="10"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="188"/>
+      <c r="A76" s="208"/>
       <c r="B76" s="22" t="s">
         <v>61</v>
       </c>
@@ -8521,10 +8694,10 @@
       <c r="S76" s="10"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="186" t="s">
+      <c r="A77" s="206" t="s">
         <v>614</v>
       </c>
-      <c r="B77" s="191" t="s">
+      <c r="B77" s="211" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -8552,8 +8725,8 @@
       <c r="S77" s="10"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="187"/>
-      <c r="B78" s="192"/>
+      <c r="A78" s="207"/>
+      <c r="B78" s="212"/>
       <c r="C78" s="30" t="s">
         <v>144</v>
       </c>
@@ -8577,7 +8750,7 @@
       <c r="S78" s="10"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="187"/>
+      <c r="A79" s="207"/>
       <c r="B79" s="123" t="s">
         <v>76</v>
       </c>
@@ -8604,8 +8777,8 @@
       <c r="S79" s="10"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="187"/>
-      <c r="B80" s="194" t="s">
+      <c r="A80" s="207"/>
+      <c r="B80" s="214" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="30" t="s">
@@ -8631,8 +8804,8 @@
       <c r="S80" s="10"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="187"/>
-      <c r="B81" s="194"/>
+      <c r="A81" s="207"/>
+      <c r="B81" s="214"/>
       <c r="C81" s="30" t="s">
         <v>147</v>
       </c>
@@ -8656,7 +8829,7 @@
       <c r="S81" s="10"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="187"/>
+      <c r="A82" s="207"/>
       <c r="B82" s="123" t="s">
         <v>78</v>
       </c>
@@ -8683,8 +8856,8 @@
       <c r="S82" s="10"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="187"/>
-      <c r="B83" s="194" t="s">
+      <c r="A83" s="207"/>
+      <c r="B83" s="214" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="30" t="s">
@@ -8710,8 +8883,8 @@
       <c r="S83" s="10"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="187"/>
-      <c r="B84" s="194"/>
+      <c r="A84" s="207"/>
+      <c r="B84" s="214"/>
       <c r="C84" s="30" t="s">
         <v>559</v>
       </c>
@@ -8735,8 +8908,8 @@
       <c r="S84" s="10"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="187"/>
-      <c r="B85" s="194"/>
+      <c r="A85" s="207"/>
+      <c r="B85" s="214"/>
       <c r="C85" s="30" t="s">
         <v>152</v>
       </c>
@@ -8760,7 +8933,7 @@
       <c r="S85" s="10"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="187"/>
+      <c r="A86" s="207"/>
       <c r="B86" s="124" t="s">
         <v>80</v>
       </c>
@@ -8787,8 +8960,8 @@
       <c r="S86" s="10"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="187"/>
-      <c r="B87" s="194" t="s">
+      <c r="A87" s="207"/>
+      <c r="B87" s="214" t="s">
         <v>81</v>
       </c>
       <c r="C87" s="30" t="s">
@@ -8814,8 +8987,8 @@
       <c r="S87" s="10"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="187"/>
-      <c r="B88" s="194"/>
+      <c r="A88" s="207"/>
+      <c r="B88" s="214"/>
       <c r="C88" s="30" t="s">
         <v>151</v>
       </c>
@@ -8839,8 +9012,8 @@
       <c r="S88" s="10"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="187"/>
-      <c r="B89" s="194"/>
+      <c r="A89" s="207"/>
+      <c r="B89" s="214"/>
       <c r="C89" s="30" t="s">
         <v>559</v>
       </c>
@@ -8864,8 +9037,8 @@
       <c r="S89" s="10"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="188"/>
-      <c r="B90" s="194"/>
+      <c r="A90" s="208"/>
+      <c r="B90" s="214"/>
       <c r="C90" s="30" t="s">
         <v>152</v>
       </c>
@@ -8889,10 +9062,10 @@
       <c r="S90" s="10"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="186" t="s">
+      <c r="A91" s="206" t="s">
         <v>615</v>
       </c>
-      <c r="B91" s="195" t="s">
+      <c r="B91" s="215" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="31" t="s">
@@ -8922,8 +9095,8 @@
       <c r="S91" s="10"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="188"/>
-      <c r="B92" s="196"/>
+      <c r="A92" s="208"/>
+      <c r="B92" s="216"/>
       <c r="C92" s="31" t="s">
         <v>132</v>
       </c>
@@ -8970,10 +9143,10 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="186" t="s">
+      <c r="A94" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="189" t="s">
+      <c r="B94" s="209" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="31" t="s">
@@ -9001,8 +9174,8 @@
       <c r="S94" s="10"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="187"/>
-      <c r="B95" s="190"/>
+      <c r="A95" s="207"/>
+      <c r="B95" s="210"/>
       <c r="C95" s="31" t="s">
         <v>562</v>
       </c>
@@ -9028,7 +9201,7 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="188"/>
+      <c r="A96" s="208"/>
       <c r="B96" s="111" t="s">
         <v>560</v>
       </c>
@@ -9057,7 +9230,7 @@
       <c r="S96" s="10"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="186" t="s">
+      <c r="A97" s="206" t="s">
         <v>616</v>
       </c>
       <c r="B97" s="29" t="s">
@@ -9088,7 +9261,7 @@
       <c r="S97" s="10"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="187"/>
+      <c r="A98" s="207"/>
       <c r="B98" s="23" t="s">
         <v>265</v>
       </c>
@@ -9117,7 +9290,7 @@
       <c r="S98" s="10"/>
     </row>
     <row r="99" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="188"/>
+      <c r="A99" s="208"/>
       <c r="B99" s="22" t="s">
         <v>264</v>
       </c>
@@ -9144,7 +9317,7 @@
       <c r="S99" s="10"/>
     </row>
     <row r="100" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="186" t="s">
+      <c r="A100" s="206" t="s">
         <v>617</v>
       </c>
       <c r="B100" s="22" t="s">
@@ -9173,7 +9346,7 @@
       <c r="S100" s="10"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101" s="188"/>
+      <c r="A101" s="208"/>
       <c r="B101" s="22" t="s">
         <v>263</v>
       </c>
@@ -9221,7 +9394,7 @@
       <c r="S102" s="10"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="186" t="s">
+      <c r="A103" s="206" t="s">
         <v>605</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -9252,7 +9425,7 @@
       <c r="S103" s="10"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="187"/>
+      <c r="A104" s="207"/>
       <c r="B104" s="23" t="s">
         <v>539</v>
       </c>
@@ -9281,7 +9454,7 @@
       <c r="S104" s="10"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="187"/>
+      <c r="A105" s="207"/>
       <c r="B105" s="23" t="s">
         <v>540</v>
       </c>
@@ -9310,8 +9483,8 @@
       <c r="S105" s="10"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="187"/>
-      <c r="B106" s="191" t="s">
+      <c r="A106" s="207"/>
+      <c r="B106" s="211" t="s">
         <v>541</v>
       </c>
       <c r="C106" s="31" t="s">
@@ -9339,8 +9512,8 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="187"/>
-      <c r="B107" s="192"/>
+      <c r="A107" s="207"/>
+      <c r="B107" s="212"/>
       <c r="C107" s="31" t="s">
         <v>194</v>
       </c>
@@ -9366,8 +9539,8 @@
       <c r="S107" s="10"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="187"/>
-      <c r="B108" s="193"/>
+      <c r="A108" s="207"/>
+      <c r="B108" s="213"/>
       <c r="C108" s="30" t="s">
         <v>195</v>
       </c>
@@ -9390,8 +9563,8 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" s="187"/>
-      <c r="B109" s="189" t="s">
+      <c r="A109" s="207"/>
+      <c r="B109" s="209" t="s">
         <v>542</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -9419,8 +9592,8 @@
       <c r="S109" s="10"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110" s="187"/>
-      <c r="B110" s="190"/>
+      <c r="A110" s="207"/>
+      <c r="B110" s="210"/>
       <c r="C110" s="31" t="s">
         <v>547</v>
       </c>
@@ -9446,7 +9619,7 @@
       <c r="S110" s="10"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" s="187"/>
+      <c r="A111" s="207"/>
       <c r="B111" s="23" t="s">
         <v>543</v>
       </c>
@@ -9475,8 +9648,8 @@
       <c r="S111" s="10"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="187"/>
-      <c r="B112" s="189" t="s">
+      <c r="A112" s="207"/>
+      <c r="B112" s="209" t="s">
         <v>544</v>
       </c>
       <c r="C112" s="31" t="s">
@@ -9504,8 +9677,8 @@
       <c r="S112" s="10"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="187"/>
-      <c r="B113" s="190"/>
+      <c r="A113" s="207"/>
+      <c r="B113" s="210"/>
       <c r="C113" s="31" t="s">
         <v>570</v>
       </c>
@@ -9531,7 +9704,7 @@
       <c r="S113" s="10"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="188"/>
+      <c r="A114" s="208"/>
       <c r="B114" s="23" t="s">
         <v>545</v>
       </c>
@@ -9560,10 +9733,10 @@
       <c r="S114" s="10"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="204" t="s">
+      <c r="B116" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="204"/>
+      <c r="C116" s="224"/>
       <c r="D116" s="68"/>
       <c r="E116" s="65"/>
       <c r="F116" s="65"/>
@@ -9580,19 +9753,19 @@
       <c r="S116" s="68"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="197" t="s">
+      <c r="B117" s="217" t="s">
         <v>524</v>
       </c>
-      <c r="C117" s="197"/>
+      <c r="C117" s="217"/>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="66"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="198" t="s">
+      <c r="B118" s="218" t="s">
         <v>525</v>
       </c>
-      <c r="C118" s="198"/>
+      <c r="C118" s="218"/>
       <c r="D118" s="67"/>
       <c r="E118" s="67"/>
       <c r="F118" s="67"/>
@@ -9674,74 +9847,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="211" t="s">
+      <c r="D1" s="231" t="s">
         <v>621</v>
       </c>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="213"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="233"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="214" t="s">
+      <c r="N1" s="234" t="s">
         <v>606</v>
       </c>
-      <c r="O1" s="215"/>
-      <c r="P1" s="216"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="236"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="208" t="s">
+      <c r="R1" s="228" t="s">
         <v>613</v>
       </c>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="210"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="230"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="208" t="s">
+      <c r="Z1" s="228" t="s">
         <v>604</v>
       </c>
-      <c r="AA1" s="209"/>
-      <c r="AB1" s="209"/>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="208" t="s">
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="228" t="s">
         <v>622</v>
       </c>
-      <c r="AH1" s="209"/>
-      <c r="AI1" s="209"/>
-      <c r="AJ1" s="209"/>
-      <c r="AK1" s="209"/>
-      <c r="AL1" s="209"/>
-      <c r="AM1" s="209"/>
-      <c r="AN1" s="210"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229"/>
+      <c r="AN1" s="230"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="208" t="s">
+      <c r="AP1" s="228" t="s">
         <v>620</v>
       </c>
-      <c r="AQ1" s="209"/>
-      <c r="AR1" s="209"/>
-      <c r="AS1" s="209"/>
-      <c r="AT1" s="209"/>
-      <c r="AU1" s="209"/>
-      <c r="AV1" s="210"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229"/>
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="230"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="208" t="s">
+      <c r="AX1" s="228" t="s">
         <v>605</v>
       </c>
-      <c r="AY1" s="209"/>
-      <c r="AZ1" s="209"/>
-      <c r="BA1" s="209"/>
-      <c r="BB1" s="209"/>
-      <c r="BC1" s="209"/>
-      <c r="BD1" s="209"/>
-      <c r="BE1" s="210"/>
+      <c r="AY1" s="229"/>
+      <c r="AZ1" s="229"/>
+      <c r="BA1" s="229"/>
+      <c r="BB1" s="229"/>
+      <c r="BC1" s="229"/>
+      <c r="BD1" s="229"/>
+      <c r="BE1" s="230"/>
     </row>
     <row r="2" spans="1:57" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -9907,7 +10080,7 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="237" t="s">
         <v>236</v>
       </c>
       <c r="B3" s="53">
@@ -9972,7 +10145,7 @@
       <c r="BE3" s="25"/>
     </row>
     <row r="4" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="217"/>
+      <c r="A4" s="237"/>
       <c r="B4" s="53">
         <v>2</v>
       </c>
@@ -10035,7 +10208,7 @@
       <c r="BE4" s="25"/>
     </row>
     <row r="5" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="217"/>
+      <c r="A5" s="237"/>
       <c r="B5" s="54">
         <v>3</v>
       </c>
@@ -10101,7 +10274,7 @@
       <c r="BE5" s="25"/>
     </row>
     <row r="6" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="217"/>
+      <c r="A6" s="237"/>
       <c r="B6" s="54">
         <v>4</v>
       </c>
@@ -10163,7 +10336,7 @@
       <c r="BE6" s="25"/>
     </row>
     <row r="7" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="217"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="53">
         <v>5</v>
       </c>
@@ -10226,7 +10399,7 @@
       <c r="BE7" s="25"/>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="217"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="54">
         <v>6</v>
       </c>
@@ -10291,7 +10464,7 @@
       <c r="BE8" s="25"/>
     </row>
     <row r="9" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="217"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="54">
         <v>7</v>
       </c>
@@ -10362,7 +10535,7 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="217"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="55">
         <v>8</v>
       </c>
@@ -10429,7 +10602,7 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="217"/>
+      <c r="A11" s="237"/>
       <c r="B11" s="54">
         <v>9</v>
       </c>
@@ -10494,7 +10667,7 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="217"/>
+      <c r="A12" s="237"/>
       <c r="B12" s="54">
         <v>10</v>
       </c>
@@ -10620,7 +10793,7 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="217" t="s">
+      <c r="A14" s="237" t="s">
         <v>241</v>
       </c>
       <c r="B14" s="54">
@@ -10689,7 +10862,7 @@
       <c r="BE14" s="25"/>
     </row>
     <row r="15" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="217"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -10811,7 +10984,7 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="237" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="55">
@@ -10881,7 +11054,7 @@
       <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="217"/>
+      <c r="A18" s="237"/>
       <c r="B18" s="55">
         <v>2</v>
       </c>
@@ -10950,7 +11123,7 @@
       <c r="BE18" s="25"/>
     </row>
     <row r="19" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="217"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="56">
         <v>3</v>
       </c>
@@ -11013,7 +11186,7 @@
       <c r="BE19" s="25"/>
     </row>
     <row r="20" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="217"/>
+      <c r="A20" s="237"/>
       <c r="B20" s="55">
         <v>4</v>
       </c>
@@ -11096,7 +11269,7 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="217"/>
+      <c r="A21" s="237"/>
       <c r="B21" s="56">
         <v>5</v>
       </c>
@@ -11218,7 +11391,7 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="203" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="55">
@@ -11285,7 +11458,7 @@
       <c r="BE23" s="25"/>
     </row>
     <row r="24" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="184"/>
+      <c r="A24" s="204"/>
       <c r="B24" s="56">
         <v>2</v>
       </c>
@@ -11348,7 +11521,7 @@
       <c r="BE24" s="25"/>
     </row>
     <row r="25" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="204"/>
       <c r="B25" s="56">
         <v>3</v>
       </c>
@@ -11411,7 +11584,7 @@
       <c r="BE25" s="25"/>
     </row>
     <row r="26" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="204"/>
       <c r="B26" s="56">
         <v>4</v>
       </c>
@@ -11474,7 +11647,7 @@
       <c r="BE26" s="25"/>
     </row>
     <row r="27" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="184"/>
+      <c r="A27" s="204"/>
       <c r="B27" s="56">
         <v>5</v>
       </c>
@@ -11537,7 +11710,7 @@
       <c r="BE27" s="25"/>
     </row>
     <row r="28" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
+      <c r="A28" s="204"/>
       <c r="B28" s="56">
         <v>6</v>
       </c>
@@ -11600,7 +11773,7 @@
       <c r="BE28" s="25"/>
     </row>
     <row r="29" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="56">
         <v>7</v>
       </c>
@@ -11663,7 +11836,7 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="204"/>
       <c r="B30" s="56">
         <v>8</v>
       </c>
@@ -11726,7 +11899,7 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="184"/>
+      <c r="A31" s="204"/>
       <c r="B31" s="56">
         <v>9</v>
       </c>
@@ -11789,7 +11962,7 @@
       <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="184"/>
+      <c r="A32" s="204"/>
       <c r="B32" s="56">
         <v>10</v>
       </c>
@@ -11852,7 +12025,7 @@
       <c r="BE32" s="25"/>
     </row>
     <row r="33" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="185"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="55">
         <v>11</v>
       </c>
@@ -11976,7 +12149,7 @@
       <c r="BE34" s="10"/>
     </row>
     <row r="35" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="183" t="s">
+      <c r="A35" s="203" t="s">
         <v>239</v>
       </c>
       <c r="B35" s="56">
@@ -12043,7 +12216,7 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="184"/>
+      <c r="A36" s="204"/>
       <c r="B36" s="55">
         <v>2</v>
       </c>
@@ -12112,7 +12285,7 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="204"/>
       <c r="B37" s="55">
         <v>3</v>
       </c>
@@ -12181,7 +12354,7 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="185"/>
+      <c r="A38" s="205"/>
       <c r="B38" s="55">
         <v>4</v>
       </c>
@@ -12307,7 +12480,7 @@
       <c r="BE39" s="10"/>
     </row>
     <row r="40" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="217" t="s">
+      <c r="A40" s="237" t="s">
         <v>240</v>
       </c>
       <c r="B40" s="55">
@@ -12374,7 +12547,7 @@
       <c r="BE40" s="25"/>
     </row>
     <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="217"/>
+      <c r="A41" s="237"/>
       <c r="B41" s="56">
         <v>2</v>
       </c>
@@ -12437,7 +12610,7 @@
       <c r="BE41" s="25"/>
     </row>
     <row r="42" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="217"/>
+      <c r="A42" s="237"/>
       <c r="B42" s="56">
         <v>3</v>
       </c>
@@ -12559,7 +12732,7 @@
       <c r="BE43" s="10"/>
     </row>
     <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="183" t="s">
+      <c r="A44" s="203" t="s">
         <v>246</v>
       </c>
       <c r="B44" s="55">
@@ -12634,7 +12807,7 @@
       <c r="BE44" s="25"/>
     </row>
     <row r="45" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="204"/>
       <c r="B45" s="55">
         <v>2</v>
       </c>
@@ -12705,7 +12878,7 @@
       <c r="BE45" s="25"/>
     </row>
     <row r="46" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="204"/>
       <c r="B46" s="55">
         <v>3</v>
       </c>
@@ -12776,7 +12949,7 @@
       <c r="BE46" s="25"/>
     </row>
     <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="185"/>
+      <c r="A47" s="205"/>
       <c r="B47" s="56">
         <v>4</v>
       </c>
@@ -13060,74 +13233,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="231" t="s">
         <v>621</v>
       </c>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="213"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="233"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="214" t="s">
+      <c r="O1" s="234" t="s">
         <v>606</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="216"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="236"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="208" t="s">
+      <c r="S1" s="228" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="210"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="230"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="208" t="s">
+      <c r="AA1" s="228" t="s">
         <v>604</v>
       </c>
-      <c r="AB1" s="209"/>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="210"/>
-      <c r="AH1" s="208" t="s">
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="230"/>
+      <c r="AH1" s="228" t="s">
         <v>622</v>
       </c>
-      <c r="AI1" s="209"/>
-      <c r="AJ1" s="209"/>
-      <c r="AK1" s="209"/>
-      <c r="AL1" s="209"/>
-      <c r="AM1" s="209"/>
-      <c r="AN1" s="209"/>
-      <c r="AO1" s="210"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229"/>
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="230"/>
       <c r="AP1" s="6"/>
-      <c r="AQ1" s="208" t="s">
+      <c r="AQ1" s="228" t="s">
         <v>620</v>
       </c>
-      <c r="AR1" s="209"/>
-      <c r="AS1" s="209"/>
-      <c r="AT1" s="209"/>
-      <c r="AU1" s="209"/>
-      <c r="AV1" s="209"/>
-      <c r="AW1" s="210"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229"/>
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="230"/>
       <c r="AX1" s="6"/>
-      <c r="AY1" s="208" t="s">
+      <c r="AY1" s="228" t="s">
         <v>605</v>
       </c>
-      <c r="AZ1" s="209"/>
-      <c r="BA1" s="209"/>
-      <c r="BB1" s="209"/>
-      <c r="BC1" s="209"/>
-      <c r="BD1" s="209"/>
-      <c r="BE1" s="209"/>
-      <c r="BF1" s="210"/>
+      <c r="AZ1" s="229"/>
+      <c r="BA1" s="229"/>
+      <c r="BB1" s="229"/>
+      <c r="BC1" s="229"/>
+      <c r="BD1" s="229"/>
+      <c r="BE1" s="229"/>
+      <c r="BF1" s="230"/>
     </row>
     <row r="2" spans="1:60" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -13296,10 +13469,10 @@
       </c>
     </row>
     <row r="3" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="237" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="229">
+      <c r="B3" s="249">
         <v>1</v>
       </c>
       <c r="C3" s="156">
@@ -13364,8 +13537,8 @@
       <c r="BF3" s="25"/>
     </row>
     <row r="4" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="217"/>
-      <c r="B4" s="230"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="250"/>
       <c r="C4" s="156">
         <v>2</v>
       </c>
@@ -13428,7 +13601,7 @@
       <c r="BF4" s="25"/>
     </row>
     <row r="5" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="217"/>
+      <c r="A5" s="237"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -13494,7 +13667,7 @@
       <c r="BF5" s="25"/>
     </row>
     <row r="6" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="217"/>
+      <c r="A6" s="237"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
@@ -13564,8 +13737,8 @@
       <c r="BF6" s="25"/>
     </row>
     <row r="7" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="217"/>
-      <c r="B7" s="227">
+      <c r="A7" s="237"/>
+      <c r="B7" s="247">
         <v>4</v>
       </c>
       <c r="C7" s="157">
@@ -13630,8 +13803,8 @@
       <c r="BF7" s="25"/>
     </row>
     <row r="8" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="217"/>
-      <c r="B8" s="228"/>
+      <c r="A8" s="237"/>
+      <c r="B8" s="248"/>
       <c r="C8" s="157">
         <v>2</v>
       </c>
@@ -13694,7 +13867,7 @@
       <c r="BF8" s="25"/>
     </row>
     <row r="9" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="217"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="53">
         <v>5</v>
       </c>
@@ -13760,7 +13933,7 @@
       <c r="BF9" s="25"/>
     </row>
     <row r="10" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="217"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="54">
         <v>6</v>
       </c>
@@ -13831,8 +14004,8 @@
       </c>
     </row>
     <row r="11" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="217"/>
-      <c r="B11" s="227">
+      <c r="A11" s="237"/>
+      <c r="B11" s="247">
         <v>7</v>
       </c>
       <c r="C11" s="157">
@@ -13901,8 +14074,8 @@
       <c r="BF11" s="25"/>
     </row>
     <row r="12" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="217"/>
-      <c r="B12" s="231"/>
+      <c r="A12" s="237"/>
+      <c r="B12" s="251"/>
       <c r="C12" s="157">
         <v>2</v>
       </c>
@@ -13977,7 +14150,7 @@
       <c r="BF12" s="25"/>
     </row>
     <row r="13" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="217"/>
+      <c r="A13" s="237"/>
       <c r="B13" s="55">
         <v>8</v>
       </c>
@@ -14047,7 +14220,7 @@
       <c r="BF13" s="25"/>
     </row>
     <row r="14" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="217"/>
+      <c r="A14" s="237"/>
       <c r="B14" s="54">
         <v>9</v>
       </c>
@@ -14115,7 +14288,7 @@
       <c r="BF14" s="25"/>
     </row>
     <row r="15" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="217"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="54">
         <v>10</v>
       </c>
@@ -14245,10 +14418,10 @@
       <c r="BF16" s="10"/>
     </row>
     <row r="17" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="227">
+      <c r="B17" s="247">
         <v>1</v>
       </c>
       <c r="C17" s="157">
@@ -14315,8 +14488,8 @@
       <c r="BF17" s="25"/>
     </row>
     <row r="18" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="217"/>
-      <c r="B18" s="228"/>
+      <c r="A18" s="237"/>
+      <c r="B18" s="248"/>
       <c r="C18" s="157">
         <v>2</v>
       </c>
@@ -14383,7 +14556,7 @@
       <c r="BF18" s="25"/>
     </row>
     <row r="19" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="217"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="63">
         <v>2</v>
       </c>
@@ -14509,7 +14682,7 @@
       <c r="BF20" s="10"/>
     </row>
     <row r="21" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="217" t="s">
+      <c r="A21" s="237" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="55">
@@ -14582,7 +14755,7 @@
       <c r="BF21" s="25"/>
     </row>
     <row r="22" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="217"/>
+      <c r="A22" s="237"/>
       <c r="B22" s="55">
         <v>2</v>
       </c>
@@ -14652,7 +14825,7 @@
       <c r="BF22" s="25"/>
     </row>
     <row r="23" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="217"/>
+      <c r="A23" s="237"/>
       <c r="B23" s="56">
         <v>3</v>
       </c>
@@ -14718,8 +14891,8 @@
       <c r="BF23" s="25"/>
     </row>
     <row r="24" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="217"/>
-      <c r="B24" s="221">
+      <c r="A24" s="237"/>
+      <c r="B24" s="241">
         <v>4</v>
       </c>
       <c r="C24" s="157">
@@ -14786,8 +14959,8 @@
       <c r="BF24" s="25"/>
     </row>
     <row r="25" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="217"/>
-      <c r="B25" s="222"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="242"/>
       <c r="C25" s="157">
         <v>2</v>
       </c>
@@ -14860,8 +15033,8 @@
       <c r="BF25" s="25"/>
     </row>
     <row r="26" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="217"/>
-      <c r="B26" s="223"/>
+      <c r="A26" s="237"/>
+      <c r="B26" s="243"/>
       <c r="C26" s="157">
         <v>3</v>
       </c>
@@ -14934,7 +15107,7 @@
       </c>
     </row>
     <row r="27" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="217"/>
+      <c r="A27" s="237"/>
       <c r="B27" s="64">
         <v>5</v>
       </c>
@@ -15060,7 +15233,7 @@
       <c r="BF28" s="10"/>
     </row>
     <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="224" t="s">
+      <c r="A29" s="244" t="s">
         <v>238</v>
       </c>
       <c r="B29" s="55">
@@ -15130,7 +15303,7 @@
       <c r="BF29" s="25"/>
     </row>
     <row r="30" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="225"/>
+      <c r="A30" s="245"/>
       <c r="B30" s="56">
         <v>2</v>
       </c>
@@ -15196,7 +15369,7 @@
       <c r="BF30" s="25"/>
     </row>
     <row r="31" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="225"/>
+      <c r="A31" s="245"/>
       <c r="B31" s="56">
         <v>3</v>
       </c>
@@ -15262,7 +15435,7 @@
       <c r="BF31" s="25"/>
     </row>
     <row r="32" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="225"/>
+      <c r="A32" s="245"/>
       <c r="B32" s="56">
         <v>4</v>
       </c>
@@ -15328,7 +15501,7 @@
       <c r="BF32" s="25"/>
     </row>
     <row r="33" spans="1:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="225"/>
+      <c r="A33" s="245"/>
       <c r="B33" s="56">
         <v>5</v>
       </c>
@@ -15394,7 +15567,7 @@
       <c r="BF33" s="25"/>
     </row>
     <row r="34" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="225"/>
+      <c r="A34" s="245"/>
       <c r="B34" s="56">
         <v>6</v>
       </c>
@@ -15460,7 +15633,7 @@
       <c r="BF34" s="25"/>
     </row>
     <row r="35" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="225"/>
+      <c r="A35" s="245"/>
       <c r="B35" s="56">
         <v>7</v>
       </c>
@@ -15526,7 +15699,7 @@
       <c r="BF35" s="25"/>
     </row>
     <row r="36" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="225"/>
+      <c r="A36" s="245"/>
       <c r="B36" s="56">
         <v>8</v>
       </c>
@@ -15592,7 +15765,7 @@
       <c r="BF36" s="25"/>
     </row>
     <row r="37" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="225"/>
+      <c r="A37" s="245"/>
       <c r="B37" s="56">
         <v>9</v>
       </c>
@@ -15658,7 +15831,7 @@
       <c r="BF37" s="25"/>
     </row>
     <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="225"/>
+      <c r="A38" s="245"/>
       <c r="B38" s="56">
         <v>10</v>
       </c>
@@ -15724,7 +15897,7 @@
       <c r="BF38" s="25"/>
     </row>
     <row r="39" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="226"/>
+      <c r="A39" s="246"/>
       <c r="B39" s="121">
         <v>11</v>
       </c>
@@ -15852,7 +16025,7 @@
       <c r="BF40" s="10"/>
     </row>
     <row r="41" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="183" t="s">
+      <c r="A41" s="203" t="s">
         <v>239</v>
       </c>
       <c r="B41" s="56">
@@ -15922,7 +16095,7 @@
       <c r="BF41" s="25"/>
     </row>
     <row r="42" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="204"/>
       <c r="B42" s="55">
         <v>2</v>
       </c>
@@ -15994,7 +16167,7 @@
       <c r="BF42" s="25"/>
     </row>
     <row r="43" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="184"/>
+      <c r="A43" s="204"/>
       <c r="B43" s="55">
         <v>3</v>
       </c>
@@ -16066,7 +16239,7 @@
       <c r="BF43" s="25"/>
     </row>
     <row r="44" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="185"/>
+      <c r="A44" s="205"/>
       <c r="B44" s="121">
         <v>4</v>
       </c>
@@ -16196,7 +16369,7 @@
       <c r="BF45" s="10"/>
     </row>
     <row r="46" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="217" t="s">
+      <c r="A46" s="237" t="s">
         <v>240</v>
       </c>
       <c r="B46" s="55">
@@ -16266,7 +16439,7 @@
       <c r="BF46" s="25"/>
     </row>
     <row r="47" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="217"/>
+      <c r="A47" s="237"/>
       <c r="B47" s="56">
         <v>2</v>
       </c>
@@ -16332,7 +16505,7 @@
       <c r="BF47" s="25"/>
     </row>
     <row r="48" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="217"/>
+      <c r="A48" s="237"/>
       <c r="B48" s="64">
         <v>3</v>
       </c>
@@ -16458,7 +16631,7 @@
       <c r="BF49" s="10"/>
     </row>
     <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="183" t="s">
+      <c r="A50" s="203" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="55">
@@ -16467,7 +16640,7 @@
       <c r="C50" s="157">
         <v>1</v>
       </c>
-      <c r="D50" s="218" t="s">
+      <c r="D50" s="238" t="s">
         <v>419</v>
       </c>
       <c r="E50" s="11"/>
@@ -16536,14 +16709,14 @@
       <c r="BF50" s="25"/>
     </row>
     <row r="51" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="184"/>
+      <c r="A51" s="204"/>
       <c r="B51" s="55">
         <v>2</v>
       </c>
       <c r="C51" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="219"/>
+      <c r="D51" s="239"/>
       <c r="E51" s="11"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
@@ -16608,14 +16781,14 @@
       <c r="BF51" s="25"/>
     </row>
     <row r="52" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="184"/>
+      <c r="A52" s="204"/>
       <c r="B52" s="55">
         <v>3</v>
       </c>
       <c r="C52" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="220"/>
+      <c r="D52" s="240"/>
       <c r="E52" s="11"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
@@ -16680,7 +16853,7 @@
       <c r="BF52" s="25"/>
     </row>
     <row r="53" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="185"/>
+      <c r="A53" s="205"/>
       <c r="B53" s="56">
         <v>4</v>
       </c>
@@ -16995,75 +17168,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="239" t="s">
+      <c r="A1" s="277"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="259" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="259"/>
+      <c r="Q1" s="259"/>
       <c r="R1" s="97"/>
-      <c r="S1" s="239" t="s">
+      <c r="S1" s="259" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
       <c r="V1" s="97"/>
-      <c r="W1" s="239" t="s">
+      <c r="W1" s="259" t="s">
         <v>237</v>
       </c>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="239"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="259"/>
+      <c r="AB1" s="259"/>
+      <c r="AC1" s="259"/>
       <c r="AD1" s="97"/>
-      <c r="AE1" s="249" t="s">
+      <c r="AE1" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="250"/>
-      <c r="AG1" s="250"/>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="250"/>
-      <c r="AJ1" s="250"/>
-      <c r="AK1" s="250"/>
-      <c r="AL1" s="250"/>
-      <c r="AM1" s="250"/>
-      <c r="AN1" s="250"/>
-      <c r="AO1" s="251"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="270"/>
+      <c r="AN1" s="270"/>
+      <c r="AO1" s="271"/>
       <c r="AP1" s="97"/>
-      <c r="AQ1" s="246" t="s">
+      <c r="AQ1" s="266" t="s">
         <v>239</v>
       </c>
-      <c r="AR1" s="247"/>
-      <c r="AS1" s="247"/>
-      <c r="AT1" s="248"/>
+      <c r="AR1" s="267"/>
+      <c r="AS1" s="267"/>
+      <c r="AT1" s="268"/>
       <c r="AU1" s="97"/>
-      <c r="AV1" s="239" t="s">
+      <c r="AV1" s="259" t="s">
         <v>240</v>
       </c>
-      <c r="AW1" s="239"/>
-      <c r="AX1" s="239"/>
+      <c r="AW1" s="259"/>
+      <c r="AX1" s="259"/>
       <c r="AY1" s="97"/>
-      <c r="AZ1" s="243" t="s">
+      <c r="AZ1" s="263" t="s">
         <v>246</v>
       </c>
-      <c r="BA1" s="244"/>
-      <c r="BB1" s="244"/>
-      <c r="BC1" s="245"/>
+      <c r="BA1" s="264"/>
+      <c r="BB1" s="264"/>
+      <c r="BC1" s="265"/>
       <c r="BD1" s="97"/>
       <c r="BE1" s="98" t="s">
         <v>234</v>
@@ -17073,34 +17246,34 @@
       </c>
     </row>
     <row r="2" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="257"/>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="259">
+      <c r="A2" s="277"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="279">
         <v>1</v>
       </c>
-      <c r="F2" s="260"/>
+      <c r="F2" s="280"/>
       <c r="G2" s="144">
         <v>2</v>
       </c>
       <c r="H2" s="144">
         <v>3</v>
       </c>
-      <c r="I2" s="252">
+      <c r="I2" s="272">
         <v>4</v>
       </c>
-      <c r="J2" s="253"/>
+      <c r="J2" s="273"/>
       <c r="K2" s="145">
         <v>5</v>
       </c>
       <c r="L2" s="144">
         <v>6</v>
       </c>
-      <c r="M2" s="255">
+      <c r="M2" s="275">
         <v>7</v>
       </c>
-      <c r="N2" s="256"/>
+      <c r="N2" s="276"/>
       <c r="O2" s="144">
         <v>8</v>
       </c>
@@ -17111,10 +17284,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="146"/>
-      <c r="S2" s="252">
+      <c r="S2" s="272">
         <v>1</v>
       </c>
-      <c r="T2" s="253"/>
+      <c r="T2" s="273"/>
       <c r="U2" s="147">
         <v>2</v>
       </c>
@@ -17128,11 +17301,11 @@
       <c r="Y2" s="145">
         <v>3</v>
       </c>
-      <c r="Z2" s="254">
+      <c r="Z2" s="274">
         <v>4</v>
       </c>
-      <c r="AA2" s="254"/>
-      <c r="AB2" s="254"/>
+      <c r="AA2" s="274"/>
+      <c r="AB2" s="274"/>
       <c r="AC2" s="147">
         <v>5</v>
       </c>
@@ -17212,10 +17385,10 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="143" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="257"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="258"/>
+      <c r="A3" s="277"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="150">
         <v>1</v>
       </c>
@@ -17363,10 +17536,10 @@
       </c>
     </row>
     <row r="4" spans="1:58" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="A4" s="257"/>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="258"/>
+      <c r="A4" s="277"/>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="43" t="s">
         <v>390</v>
       </c>
@@ -17496,11 +17669,11 @@
         <v>628</v>
       </c>
       <c r="AY4" s="45"/>
-      <c r="AZ4" s="240" t="s">
+      <c r="AZ4" s="260" t="s">
         <v>419</v>
       </c>
-      <c r="BA4" s="241"/>
-      <c r="BB4" s="242"/>
+      <c r="BA4" s="261"/>
+      <c r="BB4" s="262"/>
       <c r="BC4" s="46" t="s">
         <v>420</v>
       </c>
@@ -17510,10 +17683,10 @@
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="203" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="233" t="s">
+      <c r="B5" s="253" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -17577,8 +17750,8 @@
       <c r="BE5" s="11"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
-      <c r="B6" s="234"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="254"/>
       <c r="C6" s="30" t="s">
         <v>155</v>
       </c>
@@ -17640,8 +17813,8 @@
       <c r="BE6" s="11"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="184"/>
-      <c r="B7" s="234"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="254"/>
       <c r="C7" s="31" t="s">
         <v>156</v>
       </c>
@@ -17705,8 +17878,8 @@
       <c r="BE7" s="11"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="184"/>
-      <c r="B8" s="234"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="30" t="s">
         <v>157</v>
       </c>
@@ -17768,8 +17941,8 @@
       <c r="BE8" s="11"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
-      <c r="B9" s="234"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="30" t="s">
         <v>158</v>
       </c>
@@ -17831,8 +18004,8 @@
       <c r="BE9" s="11"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
-      <c r="B10" s="234"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
@@ -17894,8 +18067,8 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="184"/>
-      <c r="B11" s="234"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="254"/>
       <c r="C11" s="31" t="s">
         <v>161</v>
       </c>
@@ -17961,8 +18134,8 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="184"/>
-      <c r="B12" s="234"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="254"/>
       <c r="C12" s="30" t="s">
         <v>162</v>
       </c>
@@ -18024,8 +18197,8 @@
       <c r="BE12" s="25"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
-      <c r="B13" s="235"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="30" t="s">
         <v>163</v>
       </c>
@@ -18087,8 +18260,8 @@
       <c r="BE13" s="11"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
-      <c r="B14" s="233" t="s">
+      <c r="A14" s="204"/>
+      <c r="B14" s="253" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -18156,8 +18329,8 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="184"/>
-      <c r="B15" s="235"/>
+      <c r="A15" s="204"/>
+      <c r="B15" s="255"/>
       <c r="C15" s="30" t="s">
         <v>162</v>
       </c>
@@ -18219,8 +18392,8 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="184"/>
-      <c r="B16" s="233" t="s">
+      <c r="A16" s="204"/>
+      <c r="B16" s="253" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -18284,8 +18457,8 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
-      <c r="B17" s="234"/>
+      <c r="A17" s="204"/>
+      <c r="B17" s="254"/>
       <c r="C17" s="30" t="s">
         <v>160</v>
       </c>
@@ -18347,7 +18520,7 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="204"/>
       <c r="B18" s="135" t="s">
         <v>6</v>
       </c>
@@ -18416,7 +18589,7 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A19" s="185"/>
+      <c r="A19" s="205"/>
       <c r="B19" s="136" t="s">
         <v>7</v>
       </c>
@@ -18481,10 +18654,10 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A20" s="183" t="s">
+      <c r="A20" s="203" t="s">
         <v>611</v>
       </c>
-      <c r="B20" s="233" t="s">
+      <c r="B20" s="253" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -18550,8 +18723,8 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
-      <c r="B21" s="234"/>
+      <c r="A21" s="204"/>
+      <c r="B21" s="254"/>
       <c r="C21" s="30" t="s">
         <v>167</v>
       </c>
@@ -18613,8 +18786,8 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
-      <c r="B22" s="234"/>
+      <c r="A22" s="204"/>
+      <c r="B22" s="254"/>
       <c r="C22" s="30" t="s">
         <v>169</v>
       </c>
@@ -18676,8 +18849,8 @@
       <c r="BE22" s="25"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="184"/>
-      <c r="B23" s="234"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="254"/>
       <c r="C23" s="31" t="s">
         <v>169</v>
       </c>
@@ -18741,8 +18914,8 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="184"/>
-      <c r="B24" s="234"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="254"/>
       <c r="C24" s="30" t="s">
         <v>170</v>
       </c>
@@ -18804,8 +18977,8 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
-      <c r="B25" s="234"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="254"/>
       <c r="C25" s="30" t="s">
         <v>171</v>
       </c>
@@ -18867,8 +19040,8 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
-      <c r="B26" s="234"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="254"/>
       <c r="C26" s="30" t="s">
         <v>172</v>
       </c>
@@ -18930,8 +19103,8 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A27" s="184"/>
-      <c r="B27" s="234"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="254"/>
       <c r="C27" s="30" t="s">
         <v>173</v>
       </c>
@@ -18993,8 +19166,8 @@
       <c r="BE27" s="9"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
-      <c r="B28" s="234"/>
+      <c r="A28" s="204"/>
+      <c r="B28" s="254"/>
       <c r="C28" s="30" t="s">
         <v>174</v>
       </c>
@@ -19056,8 +19229,8 @@
       <c r="BE28" s="9"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
-      <c r="B29" s="234"/>
+      <c r="A29" s="204"/>
+      <c r="B29" s="254"/>
       <c r="C29" s="30" t="s">
         <v>175</v>
       </c>
@@ -19119,8 +19292,8 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
-      <c r="B30" s="234"/>
+      <c r="A30" s="204"/>
+      <c r="B30" s="254"/>
       <c r="C30" s="30" t="s">
         <v>176</v>
       </c>
@@ -19182,8 +19355,8 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="184"/>
-      <c r="B31" s="234"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="254"/>
       <c r="C31" s="30" t="s">
         <v>177</v>
       </c>
@@ -19245,8 +19418,8 @@
       <c r="BE31" s="9"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A32" s="184"/>
-      <c r="B32" s="234"/>
+      <c r="A32" s="204"/>
+      <c r="B32" s="254"/>
       <c r="C32" s="30" t="s">
         <v>178</v>
       </c>
@@ -19308,8 +19481,8 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
-      <c r="B33" s="234"/>
+      <c r="A33" s="204"/>
+      <c r="B33" s="254"/>
       <c r="C33" s="30" t="s">
         <v>179</v>
       </c>
@@ -19371,8 +19544,8 @@
       <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
-      <c r="B34" s="234"/>
+      <c r="A34" s="204"/>
+      <c r="B34" s="254"/>
       <c r="C34" s="30" t="s">
         <v>180</v>
       </c>
@@ -19434,8 +19607,8 @@
       <c r="BE34" s="9"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="184"/>
-      <c r="B35" s="234"/>
+      <c r="A35" s="204"/>
+      <c r="B35" s="254"/>
       <c r="C35" s="30" t="s">
         <v>181</v>
       </c>
@@ -19497,8 +19670,8 @@
       <c r="BE35" s="9"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="184"/>
-      <c r="B36" s="234"/>
+      <c r="A36" s="204"/>
+      <c r="B36" s="254"/>
       <c r="C36" s="30" t="s">
         <v>182</v>
       </c>
@@ -19560,8 +19733,8 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
-      <c r="B37" s="234"/>
+      <c r="A37" s="204"/>
+      <c r="B37" s="254"/>
       <c r="C37" s="30" t="s">
         <v>183</v>
       </c>
@@ -19623,8 +19796,8 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
-      <c r="B38" s="234"/>
+      <c r="A38" s="204"/>
+      <c r="B38" s="254"/>
       <c r="C38" s="30" t="s">
         <v>184</v>
       </c>
@@ -19686,8 +19859,8 @@
       <c r="BE38" s="9"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A39" s="184"/>
-      <c r="B39" s="235"/>
+      <c r="A39" s="204"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="30" t="s">
         <v>185</v>
       </c>
@@ -19749,7 +19922,7 @@
       <c r="BE39" s="9"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A40" s="184"/>
+      <c r="A40" s="204"/>
       <c r="B40" s="137" t="s">
         <v>15</v>
       </c>
@@ -19814,8 +19987,8 @@
       <c r="BE40" s="9"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
-      <c r="B41" s="195" t="s">
+      <c r="A41" s="204"/>
+      <c r="B41" s="215" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -19881,8 +20054,8 @@
       <c r="BE41" s="9"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
-      <c r="B42" s="236"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="256"/>
       <c r="C42" s="31" t="s">
         <v>188</v>
       </c>
@@ -19946,8 +20119,8 @@
       <c r="BE42" s="9"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="184"/>
-      <c r="B43" s="236"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="256"/>
       <c r="C43" s="31" t="s">
         <v>189</v>
       </c>
@@ -20011,8 +20184,8 @@
       <c r="BE43" s="9"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A44" s="184"/>
-      <c r="B44" s="236"/>
+      <c r="A44" s="204"/>
+      <c r="B44" s="256"/>
       <c r="C44" s="31" t="s">
         <v>190</v>
       </c>
@@ -20076,8 +20249,8 @@
       <c r="BE44" s="9"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
-      <c r="B45" s="236"/>
+      <c r="A45" s="204"/>
+      <c r="B45" s="256"/>
       <c r="C45" s="31" t="s">
         <v>191</v>
       </c>
@@ -20141,8 +20314,8 @@
       <c r="BE45" s="9"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
-      <c r="B46" s="236"/>
+      <c r="A46" s="204"/>
+      <c r="B46" s="256"/>
       <c r="C46" s="31" t="s">
         <v>580</v>
       </c>
@@ -20206,8 +20379,8 @@
       <c r="BE46" s="9"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="184"/>
-      <c r="B47" s="236"/>
+      <c r="A47" s="204"/>
+      <c r="B47" s="256"/>
       <c r="C47" s="31" t="s">
         <v>551</v>
       </c>
@@ -20271,8 +20444,8 @@
       <c r="BE47" s="9"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="184"/>
-      <c r="B48" s="196"/>
+      <c r="A48" s="204"/>
+      <c r="B48" s="216"/>
       <c r="C48" s="31" t="s">
         <v>552</v>
       </c>
@@ -20336,8 +20509,8 @@
       <c r="BE48" s="9"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
-      <c r="B49" s="195" t="s">
+      <c r="A49" s="204"/>
+      <c r="B49" s="215" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="31" t="s">
@@ -20403,8 +20576,8 @@
       <c r="BE49" s="9"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A50" s="185"/>
-      <c r="B50" s="196"/>
+      <c r="A50" s="205"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="31" t="s">
         <v>554</v>
       </c>
@@ -20527,10 +20700,10 @@
       <c r="BE51" s="10"/>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A52" s="186" t="s">
+      <c r="A52" s="206" t="s">
         <v>618</v>
       </c>
-      <c r="B52" s="237" t="s">
+      <c r="B52" s="257" t="s">
         <v>261</v>
       </c>
       <c r="C52" s="30" t="s">
@@ -20594,8 +20767,8 @@
       <c r="BE52" s="18"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A53" s="187"/>
-      <c r="B53" s="238"/>
+      <c r="A53" s="207"/>
+      <c r="B53" s="258"/>
       <c r="C53" s="30" t="s">
         <v>126</v>
       </c>
@@ -20657,7 +20830,7 @@
       <c r="BE53" s="18"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A54" s="187"/>
+      <c r="A54" s="207"/>
       <c r="B54" s="139" t="s">
         <v>262</v>
       </c>
@@ -20722,8 +20895,8 @@
       <c r="BE54" s="18"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A55" s="187"/>
-      <c r="B55" s="233" t="s">
+      <c r="A55" s="207"/>
+      <c r="B55" s="253" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="30" t="s">
@@ -20787,8 +20960,8 @@
       <c r="BE55" s="9"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A56" s="187"/>
-      <c r="B56" s="234"/>
+      <c r="A56" s="207"/>
+      <c r="B56" s="254"/>
       <c r="C56" s="30" t="s">
         <v>250</v>
       </c>
@@ -20850,8 +21023,8 @@
       <c r="BE56" s="9"/>
     </row>
     <row r="57" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A57" s="188"/>
-      <c r="B57" s="235"/>
+      <c r="A57" s="208"/>
+      <c r="B57" s="255"/>
       <c r="C57" s="30" t="s">
         <v>251</v>
       </c>
@@ -20972,7 +21145,7 @@
       <c r="BE58" s="10"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A59" s="186" t="s">
+      <c r="A59" s="206" t="s">
         <v>613</v>
       </c>
       <c r="B59" s="140" t="s">
@@ -21041,7 +21214,7 @@
       <c r="BE59" s="9"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A60" s="187"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="140" t="s">
         <v>43</v>
       </c>
@@ -21108,7 +21281,7 @@
       <c r="BE60" s="9"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A61" s="187"/>
+      <c r="A61" s="207"/>
       <c r="B61" s="140" t="s">
         <v>44</v>
       </c>
@@ -21177,7 +21350,7 @@
       <c r="BE61" s="9"/>
     </row>
     <row r="62" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A62" s="187"/>
+      <c r="A62" s="207"/>
       <c r="B62" s="140" t="s">
         <v>45</v>
       </c>
@@ -21246,8 +21419,8 @@
       <c r="BE62" s="25"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A63" s="187"/>
-      <c r="B63" s="195" t="s">
+      <c r="A63" s="207"/>
+      <c r="B63" s="215" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="31" t="s">
@@ -21317,8 +21490,8 @@
       <c r="BE63" s="9"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A64" s="187"/>
-      <c r="B64" s="196"/>
+      <c r="A64" s="207"/>
+      <c r="B64" s="216"/>
       <c r="C64" s="31" t="s">
         <v>140</v>
       </c>
@@ -21386,7 +21559,7 @@
       <c r="BE64" s="9"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A65" s="187"/>
+      <c r="A65" s="207"/>
       <c r="B65" s="140" t="s">
         <v>47</v>
       </c>
@@ -21463,7 +21636,7 @@
       <c r="BE65" s="18"/>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A66" s="188"/>
+      <c r="A66" s="208"/>
       <c r="B66" s="141" t="s">
         <v>538</v>
       </c>
@@ -21595,10 +21768,10 @@
       <c r="BE67" s="10"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A68" s="186" t="s">
+      <c r="A68" s="206" t="s">
         <v>604</v>
       </c>
-      <c r="B68" s="232" t="s">
+      <c r="B68" s="252" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="31" t="s">
@@ -21666,8 +21839,8 @@
       <c r="BE68" s="9"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A69" s="187"/>
-      <c r="B69" s="232"/>
+      <c r="A69" s="207"/>
+      <c r="B69" s="252"/>
       <c r="C69" s="31" t="s">
         <v>255</v>
       </c>
@@ -21733,8 +21906,8 @@
       <c r="BE69" s="9"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A70" s="187"/>
-      <c r="B70" s="232" t="s">
+      <c r="A70" s="207"/>
+      <c r="B70" s="252" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="31" t="s">
@@ -21800,8 +21973,8 @@
       <c r="BE70" s="9"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A71" s="187"/>
-      <c r="B71" s="232"/>
+      <c r="A71" s="207"/>
+      <c r="B71" s="252"/>
       <c r="C71" s="31" t="s">
         <v>117</v>
       </c>
@@ -21867,7 +22040,7 @@
       <c r="BE71" s="9"/>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A72" s="187"/>
+      <c r="A72" s="207"/>
       <c r="B72" s="140" t="s">
         <v>57</v>
       </c>
@@ -21934,7 +22107,7 @@
       <c r="BE72" s="25"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A73" s="187"/>
+      <c r="A73" s="207"/>
       <c r="B73" s="140" t="s">
         <v>58</v>
       </c>
@@ -22001,7 +22174,7 @@
       <c r="BE73" s="25"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A74" s="187"/>
+      <c r="A74" s="207"/>
       <c r="B74" s="140" t="s">
         <v>59</v>
       </c>
@@ -22068,8 +22241,8 @@
       <c r="BE74" s="9"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A75" s="187"/>
-      <c r="B75" s="232" t="s">
+      <c r="A75" s="207"/>
+      <c r="B75" s="252" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="23" t="s">
@@ -22135,8 +22308,8 @@
       <c r="BE75" s="9"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A76" s="187"/>
-      <c r="B76" s="232"/>
+      <c r="A76" s="207"/>
+      <c r="B76" s="252"/>
       <c r="C76" s="23" t="s">
         <v>122</v>
       </c>
@@ -22200,8 +22373,8 @@
       <c r="BE76" s="9"/>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A77" s="187"/>
-      <c r="B77" s="232"/>
+      <c r="A77" s="207"/>
+      <c r="B77" s="252"/>
       <c r="C77" s="23" t="s">
         <v>123</v>
       </c>
@@ -22265,7 +22438,7 @@
       <c r="BE77" s="9"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A78" s="188"/>
+      <c r="A78" s="208"/>
       <c r="B78" s="142" t="s">
         <v>61</v>
       </c>
@@ -22332,10 +22505,10 @@
       <c r="BE78" s="9"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A79" s="186" t="s">
+      <c r="A79" s="206" t="s">
         <v>614</v>
       </c>
-      <c r="B79" s="195" t="s">
+      <c r="B79" s="215" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="31" t="s">
@@ -22401,8 +22574,8 @@
       <c r="BE79" s="9"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A80" s="187"/>
-      <c r="B80" s="196"/>
+      <c r="A80" s="207"/>
+      <c r="B80" s="216"/>
       <c r="C80" s="31" t="s">
         <v>144</v>
       </c>
@@ -22466,7 +22639,7 @@
       <c r="BE80" s="9"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A81" s="187"/>
+      <c r="A81" s="207"/>
       <c r="B81" s="135" t="s">
         <v>76</v>
       </c>
@@ -22533,8 +22706,8 @@
       <c r="BE81" s="9"/>
     </row>
     <row r="82" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A82" s="187"/>
-      <c r="B82" s="232" t="s">
+      <c r="A82" s="207"/>
+      <c r="B82" s="252" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="23" t="s">
@@ -22600,8 +22773,8 @@
       <c r="BE82" s="9"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A83" s="187"/>
-      <c r="B83" s="232"/>
+      <c r="A83" s="207"/>
+      <c r="B83" s="252"/>
       <c r="C83" s="23" t="s">
         <v>147</v>
       </c>
@@ -22665,7 +22838,7 @@
       <c r="BE83" s="9"/>
     </row>
     <row r="84" spans="1:57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="187"/>
+      <c r="A84" s="207"/>
       <c r="B84" s="142" t="s">
         <v>78</v>
       </c>
@@ -22734,8 +22907,8 @@
       <c r="BE84" s="25"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A85" s="187"/>
-      <c r="B85" s="195" t="s">
+      <c r="A85" s="207"/>
+      <c r="B85" s="215" t="s">
         <v>79</v>
       </c>
       <c r="C85" s="23" t="s">
@@ -22803,8 +22976,8 @@
       <c r="BE85" s="9"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A86" s="187"/>
-      <c r="B86" s="236"/>
+      <c r="A86" s="207"/>
+      <c r="B86" s="256"/>
       <c r="C86" s="23" t="s">
         <v>559</v>
       </c>
@@ -22870,8 +23043,8 @@
       <c r="BE86" s="9"/>
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A87" s="187"/>
-      <c r="B87" s="196"/>
+      <c r="A87" s="207"/>
+      <c r="B87" s="216"/>
       <c r="C87" s="23" t="s">
         <v>152</v>
       </c>
@@ -22937,7 +23110,7 @@
       <c r="BE87" s="9"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A88" s="187"/>
+      <c r="A88" s="207"/>
       <c r="B88" s="142" t="s">
         <v>80</v>
       </c>
@@ -23008,8 +23181,8 @@
       <c r="BE88" s="9"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A89" s="187"/>
-      <c r="B89" s="195" t="s">
+      <c r="A89" s="207"/>
+      <c r="B89" s="215" t="s">
         <v>81</v>
       </c>
       <c r="C89" s="23" t="s">
@@ -23077,8 +23250,8 @@
       <c r="BE89" s="9"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A90" s="187"/>
-      <c r="B90" s="236"/>
+      <c r="A90" s="207"/>
+      <c r="B90" s="256"/>
       <c r="C90" s="23" t="s">
         <v>151</v>
       </c>
@@ -23144,8 +23317,8 @@
       <c r="BE90" s="9"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A91" s="187"/>
-      <c r="B91" s="236"/>
+      <c r="A91" s="207"/>
+      <c r="B91" s="256"/>
       <c r="C91" s="23" t="s">
         <v>559</v>
       </c>
@@ -23211,8 +23384,8 @@
       <c r="BE91" s="9"/>
     </row>
     <row r="92" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A92" s="188"/>
-      <c r="B92" s="196"/>
+      <c r="A92" s="208"/>
+      <c r="B92" s="216"/>
       <c r="C92" s="23" t="s">
         <v>152</v>
       </c>
@@ -23278,10 +23451,10 @@
       <c r="BE92" s="9"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A93" s="186" t="s">
+      <c r="A93" s="206" t="s">
         <v>615</v>
       </c>
-      <c r="B93" s="195" t="s">
+      <c r="B93" s="215" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="23" t="s">
@@ -23347,8 +23520,8 @@
       <c r="BE93" s="25"/>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A94" s="188"/>
-      <c r="B94" s="196"/>
+      <c r="A94" s="208"/>
+      <c r="B94" s="216"/>
       <c r="C94" s="23" t="s">
         <v>132</v>
       </c>
@@ -23471,10 +23644,10 @@
       <c r="BE95" s="10"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A96" s="186" t="s">
+      <c r="A96" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="B96" s="232" t="s">
+      <c r="B96" s="252" t="s">
         <v>101</v>
       </c>
       <c r="C96" s="23" t="s">
@@ -23542,8 +23715,8 @@
       <c r="BE96" s="9"/>
     </row>
     <row r="97" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A97" s="187"/>
-      <c r="B97" s="232"/>
+      <c r="A97" s="207"/>
+      <c r="B97" s="252"/>
       <c r="C97" s="23" t="s">
         <v>562</v>
       </c>
@@ -23609,7 +23782,7 @@
       <c r="BE97" s="9"/>
     </row>
     <row r="98" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="188"/>
+      <c r="A98" s="208"/>
       <c r="B98" s="141" t="s">
         <v>560</v>
       </c>
@@ -23675,7 +23848,7 @@
       <c r="BE98" s="9"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A99" s="186" t="s">
+      <c r="A99" s="206" t="s">
         <v>616</v>
       </c>
       <c r="B99" s="142" t="s">
@@ -23744,7 +23917,7 @@
       <c r="BE99" s="9"/>
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A100" s="187"/>
+      <c r="A100" s="207"/>
       <c r="B100" s="141" t="s">
         <v>265</v>
       </c>
@@ -23815,7 +23988,7 @@
       <c r="BE100" s="9"/>
     </row>
     <row r="101" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="188"/>
+      <c r="A101" s="208"/>
       <c r="B101" s="141" t="s">
         <v>264</v>
       </c>
@@ -23881,7 +24054,7 @@
       <c r="BE101" s="9"/>
     </row>
     <row r="102" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="186" t="s">
+      <c r="A102" s="206" t="s">
         <v>617</v>
       </c>
       <c r="B102" s="140" t="s">
@@ -23950,7 +24123,7 @@
       <c r="BE102" s="9"/>
     </row>
     <row r="103" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A103" s="188"/>
+      <c r="A103" s="208"/>
       <c r="B103" s="141" t="s">
         <v>263</v>
       </c>
@@ -24076,7 +24249,7 @@
       <c r="BE104" s="10"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A105" s="186" t="s">
+      <c r="A105" s="206" t="s">
         <v>605</v>
       </c>
       <c r="B105" s="140" t="s">
@@ -24145,7 +24318,7 @@
       <c r="BE105" s="25"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A106" s="187"/>
+      <c r="A106" s="207"/>
       <c r="B106" s="140" t="s">
         <v>539</v>
       </c>
@@ -24212,7 +24385,7 @@
       <c r="BE106" s="25"/>
     </row>
     <row r="107" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A107" s="187"/>
+      <c r="A107" s="207"/>
       <c r="B107" s="140" t="s">
         <v>540</v>
       </c>
@@ -24279,8 +24452,8 @@
       <c r="BE107" s="25"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A108" s="187"/>
-      <c r="B108" s="232" t="s">
+      <c r="A108" s="207"/>
+      <c r="B108" s="252" t="s">
         <v>541</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -24346,8 +24519,8 @@
       <c r="BE108" s="25"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A109" s="187"/>
-      <c r="B109" s="232"/>
+      <c r="A109" s="207"/>
+      <c r="B109" s="252"/>
       <c r="C109" s="23" t="s">
         <v>194</v>
       </c>
@@ -24411,8 +24584,8 @@
       <c r="BE109" s="25"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A110" s="187"/>
-      <c r="B110" s="232"/>
+      <c r="A110" s="207"/>
+      <c r="B110" s="252"/>
       <c r="C110" s="23" t="s">
         <v>195</v>
       </c>
@@ -24476,8 +24649,8 @@
       <c r="BE110" s="25"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A111" s="187"/>
-      <c r="B111" s="232" t="s">
+      <c r="A111" s="207"/>
+      <c r="B111" s="252" t="s">
         <v>542</v>
       </c>
       <c r="C111" s="23" t="s">
@@ -24543,8 +24716,8 @@
       <c r="BE111" s="25"/>
     </row>
     <row r="112" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A112" s="187"/>
-      <c r="B112" s="232"/>
+      <c r="A112" s="207"/>
+      <c r="B112" s="252"/>
       <c r="C112" s="23" t="s">
         <v>547</v>
       </c>
@@ -24608,7 +24781,7 @@
       <c r="BE112" s="25"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A113" s="187"/>
+      <c r="A113" s="207"/>
       <c r="B113" s="140" t="s">
         <v>543</v>
       </c>
@@ -24675,8 +24848,8 @@
       <c r="BE113" s="25"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A114" s="187"/>
-      <c r="B114" s="195" t="s">
+      <c r="A114" s="207"/>
+      <c r="B114" s="215" t="s">
         <v>544</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -24742,8 +24915,8 @@
       <c r="BE114" s="25"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A115" s="187"/>
-      <c r="B115" s="196"/>
+      <c r="A115" s="207"/>
+      <c r="B115" s="216"/>
       <c r="C115" s="23" t="s">
         <v>570</v>
       </c>
@@ -24807,7 +24980,7 @@
       <c r="BE115" s="25"/>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A116" s="188"/>
+      <c r="A116" s="208"/>
       <c r="B116" s="140" t="s">
         <v>545</v>
       </c>
@@ -24874,10 +25047,10 @@
       <c r="BE116" s="25"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B118" s="204" t="s">
+      <c r="B118" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="204"/>
+      <c r="C118" s="224"/>
       <c r="D118" s="68" t="s">
         <v>387</v>
       </c>
@@ -24905,19 +25078,19 @@
       <c r="AB118" s="68"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B119" s="197" t="s">
+      <c r="B119" s="217" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="197"/>
+      <c r="C119" s="217"/>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
       <c r="F119" s="66"/>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B120" s="198" t="s">
+      <c r="B120" s="218" t="s">
         <v>346</v>
       </c>
-      <c r="C120" s="198"/>
+      <c r="C120" s="218"/>
       <c r="D120" s="67"/>
       <c r="E120" s="67"/>
       <c r="F120" s="67"/>
@@ -24986,8 +25159,8 @@
   </sheetPr>
   <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE11" sqref="BE11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25014,72 +25187,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="262"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="285"/>
+      <c r="C1" s="259" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
       <c r="P1" s="97"/>
-      <c r="Q1" s="239" t="s">
+      <c r="Q1" s="259" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="259"/>
       <c r="T1" s="97"/>
-      <c r="U1" s="239" t="s">
+      <c r="U1" s="259" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="259"/>
       <c r="AB1" s="97"/>
-      <c r="AC1" s="249" t="s">
+      <c r="AC1" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="AD1" s="250"/>
-      <c r="AE1" s="250"/>
-      <c r="AF1" s="250"/>
-      <c r="AG1" s="250"/>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="250"/>
-      <c r="AJ1" s="250"/>
-      <c r="AK1" s="250"/>
-      <c r="AL1" s="250"/>
-      <c r="AM1" s="251"/>
+      <c r="AD1" s="270"/>
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="271"/>
       <c r="AN1" s="97"/>
-      <c r="AO1" s="246" t="s">
+      <c r="AO1" s="266" t="s">
         <v>239</v>
       </c>
-      <c r="AP1" s="247"/>
-      <c r="AQ1" s="247"/>
-      <c r="AR1" s="248"/>
+      <c r="AP1" s="267"/>
+      <c r="AQ1" s="267"/>
+      <c r="AR1" s="268"/>
       <c r="AS1" s="97"/>
-      <c r="AT1" s="239" t="s">
+      <c r="AT1" s="259" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" s="239"/>
-      <c r="AV1" s="239"/>
+      <c r="AU1" s="259"/>
+      <c r="AV1" s="259"/>
       <c r="AW1" s="97"/>
-      <c r="AX1" s="243" t="s">
+      <c r="AX1" s="263" t="s">
         <v>246</v>
       </c>
-      <c r="AY1" s="244"/>
-      <c r="AZ1" s="244"/>
-      <c r="BA1" s="245"/>
+      <c r="AY1" s="264"/>
+      <c r="AZ1" s="264"/>
+      <c r="BA1" s="265"/>
       <c r="BB1" s="97"/>
       <c r="BC1" s="98" t="s">
         <v>234</v>
@@ -25089,45 +25262,43 @@
       </c>
     </row>
     <row r="2" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="262"/>
-      <c r="C2" s="264">
+      <c r="B2" s="285"/>
+      <c r="C2" s="287">
         <v>1</v>
       </c>
-      <c r="D2" s="265"/>
+      <c r="D2" s="288"/>
       <c r="E2" s="41">
         <v>2</v>
       </c>
       <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="266">
+      <c r="G2" s="289">
         <v>4</v>
       </c>
-      <c r="H2" s="267"/>
+      <c r="H2" s="290"/>
       <c r="I2" s="41">
         <v>5</v>
       </c>
       <c r="J2" s="42">
         <v>6</v>
       </c>
-      <c r="K2" s="271">
+      <c r="K2" s="281">
         <v>7</v>
       </c>
-      <c r="L2" s="272"/>
+      <c r="L2" s="282"/>
       <c r="M2" s="24">
         <v>8</v>
       </c>
-      <c r="N2" s="42">
-        <v>9</v>
-      </c>
-      <c r="O2" s="41">
-        <v>10</v>
-      </c>
+      <c r="N2" s="281">
+        <v>7</v>
+      </c>
+      <c r="O2" s="282"/>
       <c r="P2" s="36"/>
-      <c r="Q2" s="268">
+      <c r="Q2" s="291">
         <v>1</v>
       </c>
-      <c r="R2" s="269"/>
+      <c r="R2" s="292"/>
       <c r="S2" s="49">
         <v>2</v>
       </c>
@@ -25141,11 +25312,11 @@
       <c r="W2" s="24">
         <v>3</v>
       </c>
-      <c r="X2" s="270">
+      <c r="X2" s="293">
         <v>4</v>
       </c>
-      <c r="Y2" s="270"/>
-      <c r="Z2" s="270"/>
+      <c r="Y2" s="293"/>
+      <c r="Z2" s="293"/>
       <c r="AA2" s="50">
         <v>5</v>
       </c>
@@ -25168,16 +25339,16 @@
       <c r="AH2" s="24">
         <v>6</v>
       </c>
-      <c r="AI2" s="24">
+      <c r="AI2" s="42">
         <v>7</v>
       </c>
-      <c r="AJ2" s="24">
+      <c r="AJ2" s="42">
         <v>8</v>
       </c>
-      <c r="AK2" s="24">
+      <c r="AK2" s="42">
         <v>9</v>
       </c>
-      <c r="AL2" s="23">
+      <c r="AL2" s="42">
         <v>10</v>
       </c>
       <c r="AM2" s="50">
@@ -25187,10 +25358,10 @@
       <c r="AO2" s="23">
         <v>1</v>
       </c>
-      <c r="AP2" s="24">
+      <c r="AP2" s="167">
         <v>2</v>
       </c>
-      <c r="AQ2" s="24">
+      <c r="AQ2" s="167">
         <v>3</v>
       </c>
       <c r="AR2" s="50">
@@ -25225,17 +25396,17 @@
       </c>
     </row>
     <row r="3" spans="1:56" s="143" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="262"/>
+      <c r="B3" s="285"/>
       <c r="C3" s="145">
         <v>1</v>
       </c>
       <c r="D3" s="151">
         <v>2</v>
       </c>
-      <c r="E3" s="144">
+      <c r="E3" s="173">
         <v>1</v>
       </c>
-      <c r="F3" s="144">
+      <c r="F3" s="173">
         <v>1</v>
       </c>
       <c r="G3" s="148">
@@ -25256,20 +25427,20 @@
       <c r="L3" s="154">
         <v>2</v>
       </c>
-      <c r="M3" s="144">
+      <c r="M3" s="173">
         <v>1</v>
       </c>
       <c r="N3" s="144">
         <v>1</v>
       </c>
-      <c r="O3" s="144">
+      <c r="O3" s="173">
         <v>1</v>
       </c>
       <c r="P3" s="146"/>
-      <c r="Q3" s="148">
+      <c r="Q3" s="174">
         <v>1</v>
       </c>
-      <c r="R3" s="152">
+      <c r="R3" s="175">
         <v>2</v>
       </c>
       <c r="S3" s="147">
@@ -25298,7 +25469,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="146"/>
-      <c r="AC3" s="144">
+      <c r="AC3" s="173">
         <v>1</v>
       </c>
       <c r="AD3" s="145">
@@ -25316,23 +25487,23 @@
       <c r="AH3" s="145">
         <v>1</v>
       </c>
-      <c r="AI3" s="145">
+      <c r="AI3" s="163">
         <v>1</v>
       </c>
-      <c r="AJ3" s="145">
+      <c r="AJ3" s="163">
         <v>1</v>
       </c>
-      <c r="AK3" s="145">
+      <c r="AK3" s="163">
         <v>1</v>
       </c>
-      <c r="AL3" s="145">
+      <c r="AL3" s="163">
         <v>1</v>
       </c>
-      <c r="AM3" s="148">
+      <c r="AM3" s="174">
         <v>1</v>
       </c>
       <c r="AN3" s="146"/>
-      <c r="AO3" s="145">
+      <c r="AO3" s="163">
         <v>1</v>
       </c>
       <c r="AP3" s="144">
@@ -25341,11 +25512,11 @@
       <c r="AQ3" s="144">
         <v>1</v>
       </c>
-      <c r="AR3" s="148">
+      <c r="AR3" s="174">
         <v>1</v>
       </c>
       <c r="AS3" s="146"/>
-      <c r="AT3" s="144">
+      <c r="AT3" s="173">
         <v>1</v>
       </c>
       <c r="AU3" s="145">
@@ -25373,7 +25544,7 @@
       </c>
     </row>
     <row r="4" spans="1:56" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="B4" s="263"/>
+      <c r="B4" s="286"/>
       <c r="C4" s="44" t="s">
         <v>390</v>
       </c>
@@ -25503,11 +25674,11 @@
         <v>628</v>
       </c>
       <c r="AW4" s="45"/>
-      <c r="AX4" s="240" t="s">
+      <c r="AX4" s="260" t="s">
         <v>419</v>
       </c>
-      <c r="AY4" s="241"/>
-      <c r="AZ4" s="242"/>
+      <c r="AY4" s="261"/>
+      <c r="AZ4" s="262"/>
       <c r="BA4" s="46" t="s">
         <v>420</v>
       </c>
@@ -25517,7 +25688,7 @@
       </c>
     </row>
     <row r="5" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="273" t="s">
+      <c r="A5" s="283" t="s">
         <v>526</v>
       </c>
       <c r="B5" s="119" t="s">
@@ -25578,7 +25749,7 @@
       <c r="BC5" s="11"/>
     </row>
     <row r="6" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="273"/>
+      <c r="A6" s="283"/>
       <c r="B6" s="119" t="s">
         <v>511</v>
       </c>
@@ -25637,7 +25808,7 @@
       <c r="BC6" s="11"/>
     </row>
     <row r="7" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="273"/>
+      <c r="A7" s="283"/>
       <c r="B7" s="118" t="s">
         <v>512</v>
       </c>
@@ -25703,7 +25874,7 @@
       <c r="BC7" s="11"/>
     </row>
     <row r="8" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="273"/>
+      <c r="A8" s="283"/>
       <c r="B8" s="118" t="s">
         <v>513</v>
       </c>
@@ -25768,7 +25939,7 @@
       <c r="BC8" s="11"/>
     </row>
     <row r="9" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="273"/>
+      <c r="A9" s="283"/>
       <c r="B9" s="118" t="s">
         <v>514</v>
       </c>
@@ -25829,7 +26000,7 @@
       <c r="BC9" s="11"/>
     </row>
     <row r="10" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="273"/>
+      <c r="A10" s="283"/>
       <c r="B10" s="118" t="s">
         <v>521</v>
       </c>
@@ -25904,7 +26075,7 @@
       <c r="BC10" s="11"/>
     </row>
     <row r="11" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="273"/>
+      <c r="A11" s="283"/>
       <c r="B11" s="118" t="s">
         <v>522</v>
       </c>
@@ -25971,7 +26142,7 @@
       <c r="BC11" s="11"/>
     </row>
     <row r="12" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="273"/>
+      <c r="A12" s="283"/>
       <c r="B12" s="118" t="s">
         <v>523</v>
       </c>
@@ -26044,7 +26215,7 @@
       <c r="BC12" s="11"/>
     </row>
     <row r="13" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="273"/>
+      <c r="A13" s="283"/>
       <c r="B13" s="118" t="s">
         <v>515</v>
       </c>
@@ -26105,7 +26276,7 @@
       <c r="BC13" s="25"/>
     </row>
     <row r="14" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="273"/>
+      <c r="A14" s="283"/>
       <c r="B14" s="119" t="s">
         <v>516</v>
       </c>
@@ -26164,7 +26335,7 @@
       <c r="BC14" s="25"/>
     </row>
     <row r="15" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="273"/>
+      <c r="A15" s="283"/>
       <c r="B15" s="119" t="s">
         <v>518</v>
       </c>
@@ -26223,7 +26394,7 @@
       <c r="BC15" s="25"/>
     </row>
     <row r="16" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="273"/>
+      <c r="A16" s="283"/>
       <c r="B16" s="119" t="s">
         <v>517</v>
       </c>
@@ -26282,7 +26453,7 @@
       <c r="BC16" s="25"/>
     </row>
     <row r="17" spans="1:55" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="273"/>
+      <c r="A17" s="283"/>
       <c r="B17" s="119" t="s">
         <v>519</v>
       </c>
@@ -26341,7 +26512,7 @@
       <c r="BC17" s="25"/>
     </row>
     <row r="18" spans="1:55" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="273"/>
+      <c r="A18" s="283"/>
       <c r="B18" s="119" t="s">
         <v>520</v>
       </c>
@@ -26401,13 +26572,13 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="204" t="s">
+      <c r="C20" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
@@ -26430,28 +26601,26 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="197" t="s">
+      <c r="C21" s="217" t="s">
         <v>524</v>
       </c>
-      <c r="D21" s="197"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="197"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="217"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="261" t="s">
+      <c r="C22" s="284" t="s">
         <v>525</v>
       </c>
-      <c r="D22" s="261"/>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="284"/>
+      <c r="F22" s="284"/>
+      <c r="G22" s="284"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="C20:G20"/>
+  <mergeCells count="19">
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="AX4:AZ4"/>
@@ -26468,6 +26637,1438 @@
     <mergeCell ref="AC1:AM1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="C20:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74852741-AA7F-7946-9BA8-F705BD313B92}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BE20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="20" customWidth="1"/>
+    <col min="4" max="16" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="0.5" style="3" customWidth="1"/>
+    <col min="18" max="20" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="0.5" style="3" customWidth="1"/>
+    <col min="22" max="28" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="0.5" style="3" customWidth="1"/>
+    <col min="30" max="40" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="0.5" style="3" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="0.5" style="3" customWidth="1"/>
+    <col min="47" max="49" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="0.5" style="3" customWidth="1"/>
+    <col min="51" max="54" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="0.5" style="3" customWidth="1"/>
+    <col min="56" max="56" width="4" style="3" customWidth="1"/>
+    <col min="57" max="57" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="277"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="259" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="259"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="259" t="s">
+        <v>241</v>
+      </c>
+      <c r="S1" s="259"/>
+      <c r="T1" s="259"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="259" t="s">
+        <v>237</v>
+      </c>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="259"/>
+      <c r="AB1" s="259"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="269" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="270"/>
+      <c r="AN1" s="271"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="266" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ1" s="267"/>
+      <c r="AR1" s="267"/>
+      <c r="AS1" s="268"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="259" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV1" s="259"/>
+      <c r="AW1" s="259"/>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="263" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ1" s="264"/>
+      <c r="BA1" s="264"/>
+      <c r="BB1" s="265"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE1" s="99" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="277"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="295">
+        <v>1</v>
+      </c>
+      <c r="E2" s="296"/>
+      <c r="F2" s="168">
+        <v>2</v>
+      </c>
+      <c r="G2" s="42">
+        <v>3</v>
+      </c>
+      <c r="H2" s="297">
+        <v>4</v>
+      </c>
+      <c r="I2" s="298"/>
+      <c r="J2" s="168">
+        <v>5</v>
+      </c>
+      <c r="K2" s="169">
+        <v>6</v>
+      </c>
+      <c r="L2" s="281">
+        <v>7</v>
+      </c>
+      <c r="M2" s="282"/>
+      <c r="N2" s="170">
+        <v>8</v>
+      </c>
+      <c r="O2" s="42">
+        <v>9</v>
+      </c>
+      <c r="P2" s="168">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="299">
+        <v>1</v>
+      </c>
+      <c r="S2" s="300"/>
+      <c r="T2" s="176">
+        <v>2</v>
+      </c>
+      <c r="U2" s="36"/>
+      <c r="V2" s="167">
+        <v>1</v>
+      </c>
+      <c r="W2" s="178">
+        <v>2</v>
+      </c>
+      <c r="X2" s="167">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="293">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="293"/>
+      <c r="AA2" s="293"/>
+      <c r="AB2" s="179">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="167">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="170">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="170">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="167">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="167">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="170">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="170">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="170">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="170">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="178">
+        <v>10</v>
+      </c>
+      <c r="AN2" s="179">
+        <v>11</v>
+      </c>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="178">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="170">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="170">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="179">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="170">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="170">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="179">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="167">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="178">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="178">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="170">
+        <v>4</v>
+      </c>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="277"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="171">
+        <v>1</v>
+      </c>
+      <c r="E3" s="172">
+        <v>2</v>
+      </c>
+      <c r="F3" s="173">
+        <v>1</v>
+      </c>
+      <c r="G3" s="163">
+        <v>1</v>
+      </c>
+      <c r="H3" s="174">
+        <v>1</v>
+      </c>
+      <c r="I3" s="175">
+        <v>2</v>
+      </c>
+      <c r="J3" s="171">
+        <v>1</v>
+      </c>
+      <c r="K3" s="173">
+        <v>1</v>
+      </c>
+      <c r="L3" s="164">
+        <v>1</v>
+      </c>
+      <c r="M3" s="165">
+        <v>2</v>
+      </c>
+      <c r="N3" s="173">
+        <v>1</v>
+      </c>
+      <c r="O3" s="163">
+        <v>1</v>
+      </c>
+      <c r="P3" s="173">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="174">
+        <v>1</v>
+      </c>
+      <c r="S3" s="175">
+        <v>2</v>
+      </c>
+      <c r="T3" s="177">
+        <v>1</v>
+      </c>
+      <c r="U3" s="146"/>
+      <c r="V3" s="163">
+        <v>1</v>
+      </c>
+      <c r="W3" s="173">
+        <v>1</v>
+      </c>
+      <c r="X3" s="163">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="155">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="155">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="162">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="177">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="163">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="171">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="171">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="163">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="163">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="171">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="171">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="171">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="171">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="171">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="174">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="146"/>
+      <c r="AP3" s="171">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="173">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="173">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="174">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="146"/>
+      <c r="AU3" s="173">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="171">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="177">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="146"/>
+      <c r="AY3" s="161">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="173" t="s">
+        <v>242</v>
+      </c>
+      <c r="BA3" s="175" t="s">
+        <v>242</v>
+      </c>
+      <c r="BB3" s="171">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="149"/>
+      <c r="BD3" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
+      <c r="A4" s="301"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>632</v>
+      </c>
+      <c r="U4" s="45"/>
+      <c r="V4" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="W4" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="X4" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y4" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z4" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA4" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB4" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="46" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE4" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF4" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG4" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH4" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="AI4" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="AJ4" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="AK4" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL4" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM4" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN4" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ4" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="AR4" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="AS4" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV4" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="AW4" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="260" t="s">
+        <v>419</v>
+      </c>
+      <c r="AZ4" s="261"/>
+      <c r="BA4" s="262"/>
+      <c r="BB4" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="237" t="s">
+        <v>648</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="303" t="s">
+        <v>662</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="180" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="283"/>
+      <c r="B6" s="119" t="s">
+        <v>638</v>
+      </c>
+      <c r="C6" s="304" t="s">
+        <v>650</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="11"/>
+    </row>
+    <row r="7" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="283"/>
+      <c r="B7" s="119" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" s="304" t="s">
+        <v>651</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="25"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="M7" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="11"/>
+    </row>
+    <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="283"/>
+      <c r="B8" s="118" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" s="303" t="s">
+        <v>654</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="11"/>
+    </row>
+    <row r="9" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="283"/>
+      <c r="B9" s="118" t="s">
+        <v>641</v>
+      </c>
+      <c r="C9" s="303" t="s">
+        <v>653</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="11"/>
+    </row>
+    <row r="10" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="283"/>
+      <c r="B10" s="118" t="s">
+        <v>642</v>
+      </c>
+      <c r="C10" s="303" t="s">
+        <v>652</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA10" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="11"/>
+    </row>
+    <row r="11" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="283"/>
+      <c r="B11" s="118" t="s">
+        <v>643</v>
+      </c>
+      <c r="C11" s="303" t="s">
+        <v>656</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="S11" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="11"/>
+    </row>
+    <row r="12" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="283"/>
+      <c r="B12" s="118" t="s">
+        <v>644</v>
+      </c>
+      <c r="C12" s="303" t="s">
+        <v>655</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="S12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="160"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="160"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="11"/>
+    </row>
+    <row r="13" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="283"/>
+      <c r="B13" s="118" t="s">
+        <v>645</v>
+      </c>
+      <c r="C13" s="303" t="s">
+        <v>657</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="T13" s="25"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="25"/>
+    </row>
+    <row r="14" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="283"/>
+      <c r="B14" s="118" t="s">
+        <v>646</v>
+      </c>
+      <c r="C14" s="303" t="s">
+        <v>658</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="W14" s="25"/>
+      <c r="X14" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y14" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="25"/>
+    </row>
+    <row r="15" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="283"/>
+      <c r="B15" s="118" t="s">
+        <v>647</v>
+      </c>
+      <c r="C15" s="303" t="s">
+        <v>659</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="25"/>
+    </row>
+    <row r="16" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="283"/>
+      <c r="B16" s="118" t="s">
+        <v>661</v>
+      </c>
+      <c r="C16" s="303" t="s">
+        <v>660</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="M16" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="25"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="224" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="217" t="s">
+        <v>636</v>
+      </c>
+      <c r="E19" s="217"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="294" t="s">
+        <v>637</v>
+      </c>
+      <c r="E20" s="284"/>
+      <c r="F20" s="284"/>
+      <c r="G20" s="284"/>
+      <c r="H20" s="284"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="AD1:AN1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="A1:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
